--- a/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/CCD_BEFTA_JURISDICTION1.xlsx
+++ b/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/CCD_BEFTA_JURISDICTION1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11013"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/462450/IdeaProjects/ccd-data-store-api/src/aat/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dev/code/ccd/befta-fw/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0424671-C5AE-D04B-BC29-26AC02A59927}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4325C90D-0404-534C-98C4-4DD9FE1DAF2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19420" tabRatio="823" firstSheet="6" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19420" tabRatio="823" firstSheet="10" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="195">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -646,6 +646,9 @@
   </si>
   <si>
     <t>CT With No Cases -Don't Create</t>
+  </si>
+  <si>
+    <t>caseworker-caa</t>
   </si>
 </sst>
 </file>
@@ -2776,8 +2779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2858,10 +2861,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2917,33 +2920,48 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" s="14" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A4" s="29">
         <v>43466</v>
       </c>
       <c r="B4" s="24"/>
-      <c r="C4" t="s">
-        <v>186</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>188</v>
+      <c r="C4" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>194</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="14" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A5" s="29">
         <v>43466</v>
       </c>
       <c r="B5" s="24"/>
-      <c r="C5" s="14" t="s">
-        <v>191</v>
+      <c r="C5" t="s">
+        <v>186</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>188</v>
       </c>
       <c r="E5" s="14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="14" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A6" s="29">
+        <v>43466</v>
+      </c>
+      <c r="B6" s="24"/>
+      <c r="C6" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="E6" s="14" t="s">
         <v>120</v>
       </c>
     </row>
@@ -2960,10 +2978,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD9"/>
+      <selection activeCell="E5" sqref="E5:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3034,14 +3052,14 @@
         <v>43466</v>
       </c>
       <c r="B4" s="53"/>
-      <c r="C4" t="s">
+      <c r="C4" s="14" t="s">
         <v>186</v>
       </c>
       <c r="D4" s="42" t="s">
         <v>149</v>
       </c>
       <c r="E4" s="60" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="F4" s="73" t="s">
         <v>120</v>
@@ -3059,7 +3077,7 @@
         <v>150</v>
       </c>
       <c r="E5" s="60" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="F5" s="73" t="s">
         <v>120</v>
@@ -3077,7 +3095,7 @@
         <v>153</v>
       </c>
       <c r="E6" s="60" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="F6" s="73" t="s">
         <v>120</v>
@@ -3088,8 +3106,8 @@
         <v>43466</v>
       </c>
       <c r="B7" s="53"/>
-      <c r="C7" s="14" t="s">
-        <v>191</v>
+      <c r="C7" t="s">
+        <v>186</v>
       </c>
       <c r="D7" s="42" t="s">
         <v>149</v>
@@ -3107,7 +3125,7 @@
       </c>
       <c r="B8" s="53"/>
       <c r="C8" s="14" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D8" s="42" t="s">
         <v>150</v>
@@ -3125,7 +3143,7 @@
       </c>
       <c r="B9" s="53"/>
       <c r="C9" s="14" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D9" s="42" t="s">
         <v>153</v>
@@ -3134,6 +3152,60 @@
         <v>188</v>
       </c>
       <c r="F9" s="73" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="59">
+        <v>43466</v>
+      </c>
+      <c r="B10" s="53"/>
+      <c r="C10" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="E10" s="60" t="s">
+        <v>188</v>
+      </c>
+      <c r="F10" s="73" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="59">
+        <v>43466</v>
+      </c>
+      <c r="B11" s="53"/>
+      <c r="C11" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="D11" s="42" t="s">
+        <v>150</v>
+      </c>
+      <c r="E11" s="60" t="s">
+        <v>188</v>
+      </c>
+      <c r="F11" s="73" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="59">
+        <v>43466</v>
+      </c>
+      <c r="B12" s="53"/>
+      <c r="C12" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="E12" s="60" t="s">
+        <v>188</v>
+      </c>
+      <c r="F12" s="73" t="s">
         <v>120</v>
       </c>
     </row>
@@ -3150,10 +3222,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD15"/>
+      <selection activeCell="E4" sqref="E4:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3221,14 +3293,14 @@
       <c r="A4" s="72">
         <v>43466</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="14" t="s">
         <v>186</v>
       </c>
       <c r="D4" s="42" t="s">
         <v>154</v>
       </c>
       <c r="E4" s="60" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="F4" s="24" t="s">
         <v>120</v>
@@ -3245,7 +3317,7 @@
         <v>156</v>
       </c>
       <c r="E5" s="60" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="F5" s="24" t="s">
         <v>120</v>
@@ -3262,7 +3334,7 @@
         <v>158</v>
       </c>
       <c r="E6" s="60" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="F6" s="24" t="s">
         <v>120</v>
@@ -3279,7 +3351,7 @@
         <v>160</v>
       </c>
       <c r="E7" s="60" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="F7" s="24" t="s">
         <v>120</v>
@@ -3296,7 +3368,7 @@
         <v>162</v>
       </c>
       <c r="E8" s="60" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="F8" s="24" t="s">
         <v>120</v>
@@ -3313,7 +3385,7 @@
         <v>170</v>
       </c>
       <c r="E9" s="60" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="F9" s="24" t="s">
         <v>120</v>
@@ -3323,8 +3395,8 @@
       <c r="A10" s="72">
         <v>43466</v>
       </c>
-      <c r="C10" s="14" t="s">
-        <v>191</v>
+      <c r="C10" t="s">
+        <v>186</v>
       </c>
       <c r="D10" s="42" t="s">
         <v>154</v>
@@ -3341,7 +3413,7 @@
         <v>43466</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D11" s="42" t="s">
         <v>156</v>
@@ -3358,7 +3430,7 @@
         <v>43466</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D12" s="42" t="s">
         <v>158</v>
@@ -3375,7 +3447,7 @@
         <v>43466</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D13" s="42" t="s">
         <v>160</v>
@@ -3392,7 +3464,7 @@
         <v>43466</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D14" s="42" t="s">
         <v>162</v>
@@ -3409,7 +3481,7 @@
         <v>43466</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D15" s="42" t="s">
         <v>170</v>
@@ -3418,6 +3490,108 @@
         <v>188</v>
       </c>
       <c r="F15" s="24" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="72">
+        <v>43466</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="D16" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="E16" s="60" t="s">
+        <v>188</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="72">
+        <v>43466</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="D17" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="E17" s="60" t="s">
+        <v>188</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="72">
+        <v>43466</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="D18" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="E18" s="60" t="s">
+        <v>188</v>
+      </c>
+      <c r="F18" s="24" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="72">
+        <v>43466</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="D19" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="E19" s="60" t="s">
+        <v>188</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="72">
+        <v>43466</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="D20" s="42" t="s">
+        <v>162</v>
+      </c>
+      <c r="E20" s="60" t="s">
+        <v>188</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="72">
+        <v>43466</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="D21" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="E21" s="60" t="s">
+        <v>188</v>
+      </c>
+      <c r="F21" s="24" t="s">
         <v>120</v>
       </c>
     </row>
@@ -3434,10 +3608,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD15"/>
+      <selection activeCell="E4" sqref="E4:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3500,18 +3674,18 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="72">
         <v>43466</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="14" t="s">
         <v>186</v>
       </c>
       <c r="D4" s="28" t="s">
         <v>130</v>
       </c>
       <c r="E4" s="60" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="F4" s="24" t="s">
         <v>120</v>
@@ -3528,7 +3702,7 @@
         <v>132</v>
       </c>
       <c r="E5" s="60" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="F5" s="24" t="s">
         <v>120</v>
@@ -3545,7 +3719,7 @@
         <v>134</v>
       </c>
       <c r="E6" s="60" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="F6" s="24" t="s">
         <v>120</v>
@@ -3562,7 +3736,7 @@
         <v>139</v>
       </c>
       <c r="E7" s="60" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="F7" s="24" t="s">
         <v>120</v>
@@ -3579,7 +3753,7 @@
         <v>141</v>
       </c>
       <c r="E8" s="60" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="F8" s="24" t="s">
         <v>120</v>
@@ -3596,18 +3770,18 @@
         <v>145</v>
       </c>
       <c r="E9" s="60" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="F9" s="24" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="72">
         <v>43466</v>
       </c>
-      <c r="C10" s="14" t="s">
-        <v>191</v>
+      <c r="C10" t="s">
+        <v>186</v>
       </c>
       <c r="D10" s="28" t="s">
         <v>130</v>
@@ -3624,7 +3798,7 @@
         <v>43466</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D11" s="28" t="s">
         <v>132</v>
@@ -3641,7 +3815,7 @@
         <v>43466</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D12" s="28" t="s">
         <v>134</v>
@@ -3658,7 +3832,7 @@
         <v>43466</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D13" s="42" t="s">
         <v>139</v>
@@ -3675,7 +3849,7 @@
         <v>43466</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D14" s="42" t="s">
         <v>141</v>
@@ -3692,7 +3866,7 @@
         <v>43466</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D15" s="42" t="s">
         <v>145</v>
@@ -3704,55 +3878,127 @@
         <v>120</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="72"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="24"/>
+    <row r="16" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="72">
+        <v>43466</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="E16" s="60" t="s">
+        <v>188</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="17" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="72"/>
-      <c r="D17" s="42"/>
-      <c r="F17" s="24"/>
-    </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="72"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="24"/>
+      <c r="A17" s="72">
+        <v>43466</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="E17" s="60" t="s">
+        <v>188</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="72">
+        <v>43466</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="E18" s="60" t="s">
+        <v>188</v>
+      </c>
+      <c r="F18" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="19" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="72"/>
-      <c r="D19" s="42"/>
-      <c r="F19" s="24"/>
+      <c r="A19" s="72">
+        <v>43466</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="D19" s="42" t="s">
+        <v>139</v>
+      </c>
+      <c r="E19" s="60" t="s">
+        <v>188</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="20" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="72"/>
-      <c r="D20" s="42"/>
-      <c r="F20" s="24"/>
+      <c r="A20" s="72">
+        <v>43466</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="D20" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="E20" s="60" t="s">
+        <v>188</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="21" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="72"/>
-      <c r="D21" s="28"/>
-      <c r="F21" s="24"/>
-    </row>
-    <row r="22" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="72">
+        <v>43466</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="D21" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="E21" s="60" t="s">
+        <v>188</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="72"/>
-      <c r="D22" s="28"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="14"/>
       <c r="F22" s="24"/>
     </row>
     <row r="23" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="72"/>
-      <c r="D23" s="28"/>
+      <c r="D23" s="42"/>
       <c r="F23" s="24"/>
     </row>
-    <row r="24" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="72"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
       <c r="D24" s="42"/>
+      <c r="E24" s="14"/>
       <c r="F24" s="24"/>
     </row>
     <row r="25" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -3767,17 +4013,17 @@
     </row>
     <row r="27" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="72"/>
-      <c r="D27" s="42"/>
+      <c r="D27" s="28"/>
       <c r="F27" s="24"/>
     </row>
     <row r="28" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="72"/>
-      <c r="D28" s="42"/>
+      <c r="D28" s="28"/>
       <c r="F28" s="24"/>
     </row>
     <row r="29" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="72"/>
-      <c r="D29" s="42"/>
+      <c r="D29" s="28"/>
       <c r="F29" s="24"/>
     </row>
     <row r="30" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -3792,7 +4038,7 @@
     </row>
     <row r="32" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="72"/>
-      <c r="D32" s="24"/>
+      <c r="D32" s="42"/>
       <c r="F32" s="24"/>
     </row>
     <row r="33" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -3814,6 +4060,36 @@
       <c r="A36" s="72"/>
       <c r="D36" s="42"/>
       <c r="F36" s="24"/>
+    </row>
+    <row r="37" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="72"/>
+      <c r="D37" s="42"/>
+      <c r="F37" s="24"/>
+    </row>
+    <row r="38" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="72"/>
+      <c r="D38" s="24"/>
+      <c r="F38" s="24"/>
+    </row>
+    <row r="39" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="72"/>
+      <c r="D39" s="42"/>
+      <c r="F39" s="24"/>
+    </row>
+    <row r="40" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="72"/>
+      <c r="D40" s="42"/>
+      <c r="F40" s="24"/>
+    </row>
+    <row r="41" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="72"/>
+      <c r="D41" s="42"/>
+      <c r="F41" s="24"/>
+    </row>
+    <row r="42" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="72"/>
+      <c r="D42" s="42"/>
+      <c r="F42" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/CCD_BEFTA_JURISDICTION1.xlsx
+++ b/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/CCD_BEFTA_JURISDICTION1.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="198">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -513,6 +513,9 @@
   </si>
   <si>
     <t>UserRole</t>
+  </si>
+  <si>
+    <t>pui-caa</t>
   </si>
   <si>
     <t>caseworker-befta_jurisdiction_1</t>
@@ -3044,7 +3047,9 @@
       <c r="C4" t="s" s="13">
         <v>24</v>
       </c>
-      <c r="D4" s="13"/>
+      <c r="D4" t="s" s="13">
+        <v>158</v>
+      </c>
       <c r="E4" t="s" s="13">
         <v>47</v>
       </c>
@@ -3063,7 +3068,9 @@
       <c r="C5" t="s" s="13">
         <v>24</v>
       </c>
-      <c r="D5" s="13"/>
+      <c r="D5" t="s" s="13">
+        <v>158</v>
+      </c>
       <c r="E5" t="s" s="13">
         <v>64</v>
       </c>
@@ -3121,13 +3128,13 @@
         <v>24</v>
       </c>
       <c r="D8" t="s" s="13">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E8" t="s" s="13">
         <v>47</v>
       </c>
       <c r="F8" t="s" s="13">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G8" s="33">
         <v>1</v>
@@ -3142,13 +3149,13 @@
         <v>24</v>
       </c>
       <c r="D9" t="s" s="13">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E9" t="s" s="13">
         <v>64</v>
       </c>
       <c r="F9" t="s" s="13">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G9" s="33">
         <v>2</v>
@@ -3198,7 +3205,7 @@
   <sheetData>
     <row r="1" ht="18" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B1" s="74"/>
       <c r="C1" t="s" s="10">
@@ -3228,16 +3235,16 @@
         <v>4</v>
       </c>
       <c r="F2" t="s" s="13">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G2" t="s" s="13">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H2" t="s" s="13">
         <v>4</v>
       </c>
       <c r="I2" t="s" s="13">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1">
@@ -3251,22 +3258,22 @@
         <v>38</v>
       </c>
       <c r="D3" t="s" s="10">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E3" t="s" s="10">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F3" t="s" s="9">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G3" t="s" s="9">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H3" t="s" s="32">
         <v>130</v>
       </c>
       <c r="I3" t="s" s="9">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" ht="12.75" customHeight="1">
@@ -3278,13 +3285,13 @@
         <v>24</v>
       </c>
       <c r="D4" t="s" s="13">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E4" t="s" s="13">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F4" t="s" s="48">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G4" s="33">
         <v>1</v>
@@ -3305,13 +3312,13 @@
         <v>24</v>
       </c>
       <c r="D5" t="s" s="13">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E5" t="s" s="13">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F5" t="s" s="48">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G5" s="33">
         <v>1</v>
@@ -3332,13 +3339,13 @@
         <v>24</v>
       </c>
       <c r="D6" t="s" s="13">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E6" t="s" s="13">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F6" t="s" s="48">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G6" s="33">
         <v>1</v>
@@ -3359,13 +3366,13 @@
         <v>24</v>
       </c>
       <c r="D7" t="s" s="13">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E7" t="s" s="13">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F7" t="s" s="48">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G7" s="33">
         <v>1</v>
@@ -3386,13 +3393,13 @@
         <v>24</v>
       </c>
       <c r="D8" t="s" s="13">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E8" t="s" s="13">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F8" t="s" s="48">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G8" s="33">
         <v>1</v>
@@ -3413,13 +3420,13 @@
         <v>24</v>
       </c>
       <c r="D9" t="s" s="13">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E9" t="s" s="13">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F9" t="s" s="48">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G9" s="33">
         <v>2</v>
@@ -3440,13 +3447,13 @@
         <v>28</v>
       </c>
       <c r="D10" t="s" s="13">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E10" t="s" s="13">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F10" t="s" s="48">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G10" s="33">
         <v>1</v>
@@ -3467,13 +3474,13 @@
         <v>28</v>
       </c>
       <c r="D11" t="s" s="13">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E11" t="s" s="13">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F11" t="s" s="48">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G11" s="33">
         <v>1</v>
@@ -3494,13 +3501,13 @@
         <v>28</v>
       </c>
       <c r="D12" t="s" s="13">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E12" t="s" s="13">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F12" t="s" s="48">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G12" s="33">
         <v>1</v>
@@ -3521,13 +3528,13 @@
         <v>28</v>
       </c>
       <c r="D13" t="s" s="13">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E13" t="s" s="13">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F13" t="s" s="48">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G13" s="33">
         <v>1</v>
@@ -3548,13 +3555,13 @@
         <v>28</v>
       </c>
       <c r="D14" t="s" s="13">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E14" t="s" s="13">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F14" t="s" s="48">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G14" s="33">
         <v>1</v>
@@ -3575,13 +3582,13 @@
         <v>28</v>
       </c>
       <c r="D15" t="s" s="13">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E15" t="s" s="13">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F15" t="s" s="48">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G15" s="33">
         <v>2</v>
@@ -3852,7 +3859,7 @@
   <sheetData>
     <row r="1" ht="25.5" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B1" t="s" s="3">
         <v>1</v>
@@ -3882,16 +3889,16 @@
         <v>8</v>
       </c>
       <c r="C3" t="s" s="10">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D3" t="s" s="78">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E3" t="s" s="78">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F3" t="s" s="16">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" ht="13.65" customHeight="1">
@@ -3900,7 +3907,7 @@
       </c>
       <c r="B4" s="6"/>
       <c r="C4" t="s" s="13">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D4" t="s" s="43">
         <v>12</v>
@@ -3990,7 +3997,7 @@
   <sheetData>
     <row r="1" ht="18" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B1" t="s" s="3">
         <v>1</v>
@@ -4010,10 +4017,10 @@
         <v>4</v>
       </c>
       <c r="D2" t="s" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E2" t="s" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" ht="13" customHeight="1">
@@ -4030,7 +4037,7 @@
         <v>157</v>
       </c>
       <c r="E3" t="s" s="9">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" ht="13" customHeight="1">
@@ -4042,10 +4049,10 @@
         <v>24</v>
       </c>
       <c r="D4" t="s" s="13">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E4" t="s" s="13">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" ht="13" customHeight="1">
@@ -4057,10 +4064,10 @@
         <v>24</v>
       </c>
       <c r="D5" t="s" s="13">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E5" t="s" s="13">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" ht="13" customHeight="1">
@@ -4072,10 +4079,10 @@
         <v>28</v>
       </c>
       <c r="D6" t="s" s="13">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E6" t="s" s="13">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" ht="13.65" customHeight="1">
@@ -4134,7 +4141,7 @@
   <sheetData>
     <row r="1" ht="18" customHeight="1">
       <c r="A1" t="s" s="82">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B1" t="s" s="83">
         <v>1</v>
@@ -4158,10 +4165,10 @@
         <v>4</v>
       </c>
       <c r="E2" t="s" s="88">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F2" t="s" s="88">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" ht="13" customHeight="1">
@@ -4175,13 +4182,13 @@
         <v>38</v>
       </c>
       <c r="D3" t="s" s="89">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E3" t="s" s="89">
         <v>157</v>
       </c>
       <c r="F3" t="s" s="40">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" ht="13" customHeight="1">
@@ -4196,10 +4203,10 @@
         <v>83</v>
       </c>
       <c r="E4" t="s" s="93">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F4" t="s" s="94">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" ht="13" customHeight="1">
@@ -4214,10 +4221,10 @@
         <v>85</v>
       </c>
       <c r="E5" t="s" s="97">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F5" t="s" s="94">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" ht="13" customHeight="1">
@@ -4232,10 +4239,10 @@
         <v>87</v>
       </c>
       <c r="E6" t="s" s="97">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F6" t="s" s="94">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" ht="13" customHeight="1">
@@ -4250,10 +4257,10 @@
         <v>83</v>
       </c>
       <c r="E7" t="s" s="97">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F7" t="s" s="94">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" ht="13" customHeight="1">
@@ -4268,10 +4275,10 @@
         <v>85</v>
       </c>
       <c r="E8" t="s" s="97">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F8" t="s" s="94">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" ht="13" customHeight="1">
@@ -4286,10 +4293,10 @@
         <v>87</v>
       </c>
       <c r="E9" t="s" s="97">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F9" t="s" s="94">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" ht="13" customHeight="1">
@@ -4304,10 +4311,10 @@
         <v>83</v>
       </c>
       <c r="E10" t="s" s="97">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F10" t="s" s="94">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" ht="13" customHeight="1">
@@ -4322,10 +4329,10 @@
         <v>85</v>
       </c>
       <c r="E11" t="s" s="97">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F11" t="s" s="94">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" ht="13" customHeight="1">
@@ -4340,10 +4347,10 @@
         <v>87</v>
       </c>
       <c r="E12" t="s" s="98">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F12" t="s" s="94">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -4374,7 +4381,7 @@
   <sheetData>
     <row r="1" ht="18" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B1" t="s" s="3">
         <v>1</v>
@@ -4398,10 +4405,10 @@
         <v>4</v>
       </c>
       <c r="E2" t="s" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F2" t="s" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" ht="13" customHeight="1">
@@ -4421,7 +4428,7 @@
         <v>157</v>
       </c>
       <c r="F3" t="s" s="13">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1">
@@ -4436,10 +4443,10 @@
         <v>105</v>
       </c>
       <c r="E4" t="s" s="102">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F4" t="s" s="103">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1">
@@ -4454,10 +4461,10 @@
         <v>108</v>
       </c>
       <c r="E5" t="s" s="102">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F5" t="s" s="103">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1">
@@ -4472,10 +4479,10 @@
         <v>110</v>
       </c>
       <c r="E6" t="s" s="102">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F6" t="s" s="103">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1">
@@ -4490,10 +4497,10 @@
         <v>112</v>
       </c>
       <c r="E7" t="s" s="102">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F7" t="s" s="103">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1">
@@ -4508,10 +4515,10 @@
         <v>114</v>
       </c>
       <c r="E8" t="s" s="102">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F8" t="s" s="103">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
@@ -4526,10 +4533,10 @@
         <v>117</v>
       </c>
       <c r="E9" t="s" s="102">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F9" t="s" s="103">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
@@ -4544,10 +4551,10 @@
         <v>105</v>
       </c>
       <c r="E10" t="s" s="102">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F10" t="s" s="103">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
@@ -4562,10 +4569,10 @@
         <v>108</v>
       </c>
       <c r="E11" t="s" s="102">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F11" t="s" s="103">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
@@ -4580,10 +4587,10 @@
         <v>110</v>
       </c>
       <c r="E12" t="s" s="102">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F12" t="s" s="103">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
@@ -4598,10 +4605,10 @@
         <v>112</v>
       </c>
       <c r="E13" t="s" s="102">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F13" t="s" s="103">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
@@ -4616,10 +4623,10 @@
         <v>114</v>
       </c>
       <c r="E14" t="s" s="102">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F14" t="s" s="103">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
@@ -4634,10 +4641,10 @@
         <v>117</v>
       </c>
       <c r="E15" t="s" s="102">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F15" t="s" s="103">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
@@ -4652,10 +4659,10 @@
         <v>105</v>
       </c>
       <c r="E16" t="s" s="102">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F16" t="s" s="103">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
@@ -4670,10 +4677,10 @@
         <v>108</v>
       </c>
       <c r="E17" t="s" s="102">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F17" t="s" s="103">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
@@ -4688,10 +4695,10 @@
         <v>110</v>
       </c>
       <c r="E18" t="s" s="102">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F18" t="s" s="103">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
@@ -4706,10 +4713,10 @@
         <v>112</v>
       </c>
       <c r="E19" t="s" s="102">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F19" t="s" s="103">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1">
@@ -4724,10 +4731,10 @@
         <v>114</v>
       </c>
       <c r="E20" t="s" s="102">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F20" t="s" s="103">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1">
@@ -4742,10 +4749,10 @@
         <v>117</v>
       </c>
       <c r="E21" t="s" s="104">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F21" t="s" s="103">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -4776,7 +4783,7 @@
   <sheetData>
     <row r="1" ht="18" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B1" t="s" s="3">
         <v>1</v>
@@ -4803,7 +4810,7 @@
         <v>4</v>
       </c>
       <c r="F2" t="s" s="27">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" ht="13" customHeight="1">
@@ -4823,7 +4830,7 @@
         <v>157</v>
       </c>
       <c r="F3" t="s" s="13">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1">
@@ -4838,10 +4845,10 @@
         <v>47</v>
       </c>
       <c r="E4" t="s" s="102">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F4" t="s" s="103">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1">
@@ -4856,10 +4863,10 @@
         <v>52</v>
       </c>
       <c r="E5" t="s" s="102">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F5" t="s" s="103">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1">
@@ -4874,10 +4881,10 @@
         <v>56</v>
       </c>
       <c r="E6" t="s" s="102">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F6" t="s" s="103">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1">
@@ -4892,10 +4899,10 @@
         <v>60</v>
       </c>
       <c r="E7" t="s" s="102">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F7" t="s" s="103">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1">
@@ -4910,10 +4917,10 @@
         <v>64</v>
       </c>
       <c r="E8" t="s" s="102">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F8" t="s" s="103">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
@@ -4928,10 +4935,10 @@
         <v>68</v>
       </c>
       <c r="E9" t="s" s="102">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F9" t="s" s="103">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
@@ -4946,10 +4953,10 @@
         <v>47</v>
       </c>
       <c r="E10" t="s" s="102">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F10" t="s" s="103">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
@@ -4964,10 +4971,10 @@
         <v>52</v>
       </c>
       <c r="E11" t="s" s="102">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F11" t="s" s="103">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
@@ -4982,10 +4989,10 @@
         <v>56</v>
       </c>
       <c r="E12" t="s" s="102">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F12" t="s" s="103">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
@@ -5000,10 +5007,10 @@
         <v>60</v>
       </c>
       <c r="E13" t="s" s="102">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F13" t="s" s="103">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
@@ -5018,10 +5025,10 @@
         <v>64</v>
       </c>
       <c r="E14" t="s" s="102">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F14" t="s" s="103">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
@@ -5036,10 +5043,10 @@
         <v>68</v>
       </c>
       <c r="E15" t="s" s="102">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F15" t="s" s="103">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
@@ -5054,10 +5061,10 @@
         <v>47</v>
       </c>
       <c r="E16" t="s" s="102">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F16" t="s" s="103">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
@@ -5072,10 +5079,10 @@
         <v>52</v>
       </c>
       <c r="E17" t="s" s="102">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F17" t="s" s="103">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
@@ -5090,10 +5097,10 @@
         <v>56</v>
       </c>
       <c r="E18" t="s" s="102">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F18" t="s" s="103">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
@@ -5108,10 +5115,10 @@
         <v>60</v>
       </c>
       <c r="E19" t="s" s="102">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F19" t="s" s="103">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1">
@@ -5126,10 +5133,10 @@
         <v>64</v>
       </c>
       <c r="E20" t="s" s="102">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F20" t="s" s="103">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1">
@@ -5144,10 +5151,10 @@
         <v>68</v>
       </c>
       <c r="E21" t="s" s="102">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F21" t="s" s="103">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
@@ -5347,7 +5354,7 @@
   <sheetData>
     <row r="1" ht="18" customHeight="1">
       <c r="A1" t="s" s="108">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B1" t="s" s="109">
         <v>1</v>
@@ -5366,19 +5373,19 @@
       <c r="A2" s="35"/>
       <c r="B2" s="35"/>
       <c r="C2" t="s" s="27">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D2" t="s" s="27">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E2" t="s" s="27">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F2" t="s" s="27">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G2" t="s" s="27">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" ht="13.65" customHeight="1">
@@ -5401,7 +5408,7 @@
         <v>157</v>
       </c>
       <c r="G3" t="s" s="28">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" ht="13.65" customHeight="1">

--- a/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/CCD_BEFTA_JURISDICTION1.xlsx
+++ b/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/CCD_BEFTA_JURISDICTION1.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="197">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -515,7 +515,7 @@
     <t>UserRole</t>
   </si>
   <si>
-    <t>pui-caa</t>
+    <t>caseworker-caa</t>
   </si>
   <si>
     <t>caseworker-befta_jurisdiction_1</t>
@@ -602,9 +602,6 @@
   </si>
   <si>
     <t>CRUD</t>
-  </si>
-  <si>
-    <t>caseworker-caa</t>
   </si>
   <si>
     <t>CRU</t>
@@ -682,17 +679,17 @@
     </font>
     <font>
       <sz val="10"/>
-      <color indexed="10"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color indexed="11"/>
       <name val="Arial"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="12"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="13"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -710,7 +707,13 @@
     <font>
       <b val="1"/>
       <sz val="10"/>
-      <color indexed="10"/>
+      <color indexed="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="10"/>
+      <color indexed="13"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -721,14 +724,8 @@
     </font>
     <font>
       <b val="1"/>
-      <sz val="10"/>
-      <color indexed="11"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b val="1"/>
       <sz val="11"/>
-      <color indexed="11"/>
+      <color indexed="12"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -745,7 +742,7 @@
     <font>
       <b val="1"/>
       <sz val="11"/>
-      <color indexed="10"/>
+      <color indexed="11"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -791,7 +788,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="13"/>
+        <fgColor indexed="9"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -806,31 +803,31 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
         <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -839,25 +836,25 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
         <color indexed="8"/>
@@ -881,16 +878,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -899,26 +896,26 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right/>
       <top style="thin">
         <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -935,14 +932,14 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -962,19 +959,19 @@
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -989,13 +986,13 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1004,20 +1001,20 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1027,65 +1024,65 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="6" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="7" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="7" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="8" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="9" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="59" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="60" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="60" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="7" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -1097,37 +1094,25 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="61" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="61" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="11" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -1139,25 +1124,16 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="8" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="8" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1166,25 +1142,25 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="12" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="59" fontId="13" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="13" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="13" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="13" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="14" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="13" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -1229,46 +1205,28 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="59" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="13" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="6" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="61" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="61" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -1328,61 +1286,37 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="10" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf numFmtId="49" fontId="21" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -1402,11 +1336,11 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
       <rgbColor rgb="ffff0000"/>
       <rgbColor rgb="ffffc000"/>
       <rgbColor rgb="ff7b4b23"/>
-      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ff333333"/>
       <rgbColor rgb="ff800000"/>
       <rgbColor rgb="ff0000ff"/>
@@ -1561,9 +1495,9 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -1643,7 +1577,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1671,10 +1605,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1930,9 +1864,9 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
             <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
+              <a:alpha val="35000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
@@ -2220,7 +2154,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2248,10 +2182,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -2635,13 +2569,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="27.3516" style="50" customWidth="1"/>
-    <col min="2" max="2" width="15.3516" style="50" customWidth="1"/>
-    <col min="3" max="3" width="27.8516" style="50" customWidth="1"/>
-    <col min="4" max="4" width="18.1719" style="50" customWidth="1"/>
-    <col min="5" max="5" width="19.3516" style="50" customWidth="1"/>
-    <col min="6" max="6" width="12.6719" style="50" customWidth="1"/>
-    <col min="7" max="16384" width="14.3516" style="50" customWidth="1"/>
+    <col min="1" max="1" width="27.3516" style="43" customWidth="1"/>
+    <col min="2" max="2" width="15.3516" style="43" customWidth="1"/>
+    <col min="3" max="3" width="27.8516" style="43" customWidth="1"/>
+    <col min="4" max="4" width="18.1719" style="43" customWidth="1"/>
+    <col min="5" max="5" width="19.3516" style="43" customWidth="1"/>
+    <col min="6" max="6" width="12.6719" style="43" customWidth="1"/>
+    <col min="7" max="16384" width="14.3516" style="43" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1">
@@ -2683,10 +2617,10 @@
       <c r="B3" t="s" s="9">
         <v>8</v>
       </c>
-      <c r="C3" t="s" s="46">
+      <c r="C3" t="s" s="39">
         <v>38</v>
       </c>
-      <c r="D3" t="s" s="46">
+      <c r="D3" t="s" s="39">
         <v>130</v>
       </c>
       <c r="E3" t="s" s="9">
@@ -2697,74 +2631,74 @@
       </c>
     </row>
     <row r="4" ht="13.65" customHeight="1">
-      <c r="A4" s="51">
-        <v>43466</v>
-      </c>
-      <c r="B4" s="52"/>
+      <c r="A4" s="44">
+        <v>43466</v>
+      </c>
+      <c r="B4" s="45"/>
       <c r="C4" t="s" s="13">
         <v>24</v>
       </c>
       <c r="D4" t="s" s="13">
         <v>47</v>
       </c>
-      <c r="E4" t="s" s="48">
+      <c r="E4" t="s" s="41">
         <v>150</v>
       </c>
-      <c r="F4" s="49">
+      <c r="F4" s="42">
         <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.65" customHeight="1">
-      <c r="A5" s="51">
-        <v>43466</v>
-      </c>
-      <c r="B5" s="52"/>
+      <c r="A5" s="44">
+        <v>43466</v>
+      </c>
+      <c r="B5" s="45"/>
       <c r="C5" t="s" s="13">
         <v>24</v>
       </c>
       <c r="D5" t="s" s="13">
         <v>64</v>
       </c>
-      <c r="E5" t="s" s="48">
+      <c r="E5" t="s" s="41">
         <v>151</v>
       </c>
-      <c r="F5" s="49">
+      <c r="F5" s="42">
         <v>2</v>
       </c>
     </row>
     <row r="6" ht="13.65" customHeight="1">
-      <c r="A6" s="51">
-        <v>43466</v>
-      </c>
-      <c r="B6" s="52"/>
+      <c r="A6" s="44">
+        <v>43466</v>
+      </c>
+      <c r="B6" s="45"/>
       <c r="C6" t="s" s="13">
         <v>28</v>
       </c>
       <c r="D6" t="s" s="13">
         <v>47</v>
       </c>
-      <c r="E6" t="s" s="48">
+      <c r="E6" t="s" s="41">
         <v>150</v>
       </c>
-      <c r="F6" s="49">
+      <c r="F6" s="42">
         <v>1</v>
       </c>
     </row>
     <row r="7" ht="13.65" customHeight="1">
-      <c r="A7" s="51">
-        <v>43466</v>
-      </c>
-      <c r="B7" s="52"/>
+      <c r="A7" s="44">
+        <v>43466</v>
+      </c>
+      <c r="B7" s="45"/>
       <c r="C7" t="s" s="13">
         <v>28</v>
       </c>
       <c r="D7" t="s" s="13">
         <v>64</v>
       </c>
-      <c r="E7" t="s" s="48">
+      <c r="E7" t="s" s="41">
         <v>151</v>
       </c>
-      <c r="F7" s="49">
+      <c r="F7" s="42">
         <v>2</v>
       </c>
     </row>
@@ -2814,142 +2748,142 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="28.8516" style="53" customWidth="1"/>
-    <col min="2" max="2" width="15.5" style="53" customWidth="1"/>
-    <col min="3" max="3" width="29.8516" style="53" customWidth="1"/>
-    <col min="4" max="4" width="19.8516" style="53" customWidth="1"/>
-    <col min="5" max="5" width="20.1719" style="53" customWidth="1"/>
-    <col min="6" max="6" width="15.3516" style="53" customWidth="1"/>
-    <col min="7" max="16384" width="8.85156" style="53" customWidth="1"/>
+    <col min="1" max="1" width="28.8516" style="46" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="46" customWidth="1"/>
+    <col min="3" max="3" width="29.8516" style="46" customWidth="1"/>
+    <col min="4" max="4" width="19.8516" style="46" customWidth="1"/>
+    <col min="5" max="5" width="20.1719" style="46" customWidth="1"/>
+    <col min="6" max="6" width="15.3516" style="46" customWidth="1"/>
+    <col min="7" max="16384" width="8.85156" style="46" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19" customHeight="1">
-      <c r="A1" t="s" s="54">
+      <c r="A1" t="s" s="47">
         <v>152</v>
       </c>
-      <c r="B1" t="s" s="55">
+      <c r="B1" t="s" s="48">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="56">
+      <c r="C1" t="s" s="49">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="57">
+      <c r="D1" t="s" s="50">
         <v>3</v>
       </c>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
     </row>
     <row r="2" ht="48" customHeight="1">
-      <c r="A2" s="59"/>
-      <c r="B2" s="59"/>
-      <c r="C2" t="s" s="60">
+      <c r="A2" s="52"/>
+      <c r="B2" s="52"/>
+      <c r="C2" t="s" s="53">
         <v>153</v>
       </c>
-      <c r="D2" t="s" s="60">
+      <c r="D2" t="s" s="53">
         <v>154</v>
       </c>
-      <c r="E2" t="s" s="60">
+      <c r="E2" t="s" s="53">
         <v>155</v>
       </c>
-      <c r="F2" t="s" s="60">
+      <c r="F2" t="s" s="53">
         <v>91</v>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="s" s="61">
+      <c r="A3" t="s" s="54">
         <v>7</v>
       </c>
-      <c r="B3" t="s" s="61">
+      <c r="B3" t="s" s="54">
         <v>8</v>
       </c>
-      <c r="C3" t="s" s="56">
+      <c r="C3" t="s" s="49">
         <v>38</v>
       </c>
-      <c r="D3" t="s" s="56">
+      <c r="D3" t="s" s="49">
         <v>130</v>
       </c>
-      <c r="E3" t="s" s="61">
+      <c r="E3" t="s" s="54">
         <v>39</v>
       </c>
-      <c r="F3" t="s" s="61">
+      <c r="F3" t="s" s="54">
         <v>82</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="62">
-        <v>43466</v>
-      </c>
-      <c r="B4" s="63"/>
-      <c r="C4" t="s" s="64">
+      <c r="A4" s="55">
+        <v>43466</v>
+      </c>
+      <c r="B4" s="56"/>
+      <c r="C4" t="s" s="57">
         <v>24</v>
       </c>
-      <c r="D4" t="s" s="64">
+      <c r="D4" t="s" s="57">
         <v>47</v>
       </c>
-      <c r="E4" t="s" s="65">
+      <c r="E4" t="s" s="58">
         <v>147</v>
       </c>
-      <c r="F4" s="66">
+      <c r="F4" s="59">
         <v>1</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="67">
-        <v>43466</v>
-      </c>
-      <c r="B5" s="68"/>
-      <c r="C5" t="s" s="43">
+      <c r="A5" s="11">
+        <v>43466</v>
+      </c>
+      <c r="B5" s="40"/>
+      <c r="C5" t="s" s="13">
         <v>28</v>
       </c>
-      <c r="D5" t="s" s="43">
+      <c r="D5" t="s" s="13">
         <v>47</v>
       </c>
-      <c r="E5" t="s" s="69">
+      <c r="E5" t="s" s="41">
         <v>147</v>
       </c>
-      <c r="F5" s="70">
+      <c r="F5" s="42">
         <v>1</v>
       </c>
     </row>
     <row r="6" ht="13.65" customHeight="1">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
     </row>
     <row r="7" ht="13.65" customHeight="1">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
     </row>
     <row r="8" ht="13.65" customHeight="1">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
     </row>
     <row r="9" ht="13.65" customHeight="1">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
     </row>
     <row r="10" ht="13.65" customHeight="1">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -2973,13 +2907,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="34.3516" style="71" customWidth="1"/>
-    <col min="2" max="2" width="15.3516" style="71" customWidth="1"/>
-    <col min="3" max="3" width="20.3516" style="71" customWidth="1"/>
-    <col min="4" max="5" width="16.3516" style="71" customWidth="1"/>
-    <col min="6" max="6" width="19.3516" style="71" customWidth="1"/>
-    <col min="7" max="7" width="12.6719" style="71" customWidth="1"/>
-    <col min="8" max="16384" width="14.3516" style="71" customWidth="1"/>
+    <col min="1" max="1" width="34.3516" style="60" customWidth="1"/>
+    <col min="2" max="2" width="15.3516" style="60" customWidth="1"/>
+    <col min="3" max="3" width="20.3516" style="60" customWidth="1"/>
+    <col min="4" max="5" width="16.3516" style="60" customWidth="1"/>
+    <col min="6" max="6" width="19.3516" style="60" customWidth="1"/>
+    <col min="7" max="7" width="12.6719" style="60" customWidth="1"/>
+    <col min="8" max="16384" width="14.3516" style="60" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.5" customHeight="1">
@@ -2992,7 +2926,7 @@
       <c r="C1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="D1" s="72"/>
+      <c r="D1" s="61"/>
       <c r="E1" t="s" s="5">
         <v>3</v>
       </c>
@@ -3023,13 +2957,13 @@
       <c r="B3" t="s" s="9">
         <v>8</v>
       </c>
-      <c r="C3" t="s" s="46">
+      <c r="C3" t="s" s="39">
         <v>38</v>
       </c>
-      <c r="D3" t="s" s="46">
+      <c r="D3" t="s" s="39">
         <v>157</v>
       </c>
-      <c r="E3" t="s" s="46">
+      <c r="E3" t="s" s="39">
         <v>130</v>
       </c>
       <c r="F3" t="s" s="9">
@@ -3040,10 +2974,10 @@
       </c>
     </row>
     <row r="4" ht="13.65" customHeight="1">
-      <c r="A4" s="51">
-        <v>43466</v>
-      </c>
-      <c r="B4" s="52"/>
+      <c r="A4" s="44">
+        <v>43466</v>
+      </c>
+      <c r="B4" s="45"/>
       <c r="C4" t="s" s="13">
         <v>24</v>
       </c>
@@ -3053,18 +2987,18 @@
       <c r="E4" t="s" s="13">
         <v>47</v>
       </c>
-      <c r="F4" t="s" s="48">
+      <c r="F4" t="s" s="41">
         <v>150</v>
       </c>
-      <c r="G4" s="49">
+      <c r="G4" s="42">
         <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.65" customHeight="1">
-      <c r="A5" s="51">
-        <v>43466</v>
-      </c>
-      <c r="B5" s="52"/>
+      <c r="A5" s="44">
+        <v>43466</v>
+      </c>
+      <c r="B5" s="45"/>
       <c r="C5" t="s" s="13">
         <v>24</v>
       </c>
@@ -3074,18 +3008,18 @@
       <c r="E5" t="s" s="13">
         <v>64</v>
       </c>
-      <c r="F5" t="s" s="48">
+      <c r="F5" t="s" s="41">
         <v>151</v>
       </c>
-      <c r="G5" s="49">
+      <c r="G5" s="42">
         <v>2</v>
       </c>
     </row>
     <row r="6" ht="13.65" customHeight="1">
-      <c r="A6" s="51">
-        <v>43466</v>
-      </c>
-      <c r="B6" s="52"/>
+      <c r="A6" s="44">
+        <v>43466</v>
+      </c>
+      <c r="B6" s="45"/>
       <c r="C6" t="s" s="13">
         <v>28</v>
       </c>
@@ -3093,18 +3027,18 @@
       <c r="E6" t="s" s="13">
         <v>47</v>
       </c>
-      <c r="F6" t="s" s="48">
+      <c r="F6" t="s" s="41">
         <v>150</v>
       </c>
-      <c r="G6" s="49">
+      <c r="G6" s="42">
         <v>1</v>
       </c>
     </row>
     <row r="7" ht="13.65" customHeight="1">
-      <c r="A7" s="51">
-        <v>43466</v>
-      </c>
-      <c r="B7" s="52"/>
+      <c r="A7" s="44">
+        <v>43466</v>
+      </c>
+      <c r="B7" s="45"/>
       <c r="C7" t="s" s="13">
         <v>28</v>
       </c>
@@ -3112,15 +3046,15 @@
       <c r="E7" t="s" s="13">
         <v>64</v>
       </c>
-      <c r="F7" t="s" s="48">
+      <c r="F7" t="s" s="41">
         <v>151</v>
       </c>
-      <c r="G7" s="49">
+      <c r="G7" s="42">
         <v>2</v>
       </c>
     </row>
     <row r="8" ht="13.65" customHeight="1">
-      <c r="A8" s="51">
+      <c r="A8" s="44">
         <v>43466</v>
       </c>
       <c r="B8" s="6"/>
@@ -3136,12 +3070,12 @@
       <c r="F8" t="s" s="13">
         <v>160</v>
       </c>
-      <c r="G8" s="33">
+      <c r="G8" s="29">
         <v>1</v>
       </c>
     </row>
     <row r="9" ht="13.65" customHeight="1">
-      <c r="A9" s="51">
+      <c r="A9" s="44">
         <v>43466</v>
       </c>
       <c r="B9" s="6"/>
@@ -3157,7 +3091,7 @@
       <c r="F9" t="s" s="13">
         <v>161</v>
       </c>
-      <c r="G9" s="33">
+      <c r="G9" s="29">
         <v>2</v>
       </c>
     </row>
@@ -3192,26 +3126,26 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="12" style="73" customWidth="1"/>
-    <col min="2" max="2" width="8.85156" style="73" customWidth="1"/>
-    <col min="3" max="3" width="27.8516" style="73" customWidth="1"/>
-    <col min="4" max="4" width="31.6719" style="73" customWidth="1"/>
-    <col min="5" max="6" width="22" style="73" customWidth="1"/>
-    <col min="7" max="7" width="16.3516" style="73" customWidth="1"/>
-    <col min="8" max="8" width="40.8516" style="73" customWidth="1"/>
-    <col min="9" max="9" width="21" style="73" customWidth="1"/>
-    <col min="10" max="16384" width="14.3516" style="73" customWidth="1"/>
+    <col min="1" max="1" width="12" style="62" customWidth="1"/>
+    <col min="2" max="2" width="8.85156" style="62" customWidth="1"/>
+    <col min="3" max="3" width="27.8516" style="62" customWidth="1"/>
+    <col min="4" max="4" width="31.6719" style="62" customWidth="1"/>
+    <col min="5" max="6" width="22" style="62" customWidth="1"/>
+    <col min="7" max="7" width="16.3516" style="62" customWidth="1"/>
+    <col min="8" max="8" width="40.8516" style="62" customWidth="1"/>
+    <col min="9" max="9" width="21" style="62" customWidth="1"/>
+    <col min="10" max="16384" width="14.3516" style="62" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1">
       <c r="A1" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="B1" s="74"/>
+      <c r="B1" s="63"/>
       <c r="C1" t="s" s="10">
         <v>1</v>
       </c>
-      <c r="D1" t="s" s="32">
+      <c r="D1" t="s" s="28">
         <v>2</v>
       </c>
       <c r="E1" t="s" s="5">
@@ -3254,7 +3188,7 @@
       <c r="B3" t="s" s="9">
         <v>8</v>
       </c>
-      <c r="C3" t="s" s="32">
+      <c r="C3" t="s" s="28">
         <v>38</v>
       </c>
       <c r="D3" t="s" s="10">
@@ -3269,7 +3203,7 @@
       <c r="G3" t="s" s="9">
         <v>168</v>
       </c>
-      <c r="H3" t="s" s="32">
+      <c r="H3" t="s" s="28">
         <v>130</v>
       </c>
       <c r="I3" t="s" s="9">
@@ -3290,16 +3224,16 @@
       <c r="E4" t="s" s="13">
         <v>171</v>
       </c>
-      <c r="F4" t="s" s="48">
+      <c r="F4" t="s" s="41">
         <v>172</v>
       </c>
-      <c r="G4" s="33">
+      <c r="G4" s="29">
         <v>1</v>
       </c>
       <c r="H4" t="s" s="13">
         <v>47</v>
       </c>
-      <c r="I4" s="33">
+      <c r="I4" s="29">
         <v>1</v>
       </c>
     </row>
@@ -3317,16 +3251,16 @@
       <c r="E5" t="s" s="13">
         <v>171</v>
       </c>
-      <c r="F5" t="s" s="48">
+      <c r="F5" t="s" s="41">
         <v>172</v>
       </c>
-      <c r="G5" s="33">
+      <c r="G5" s="29">
         <v>1</v>
       </c>
       <c r="H5" t="s" s="13">
         <v>52</v>
       </c>
-      <c r="I5" s="33">
+      <c r="I5" s="29">
         <v>2</v>
       </c>
     </row>
@@ -3344,16 +3278,16 @@
       <c r="E6" t="s" s="13">
         <v>171</v>
       </c>
-      <c r="F6" t="s" s="48">
+      <c r="F6" t="s" s="41">
         <v>172</v>
       </c>
-      <c r="G6" s="33">
+      <c r="G6" s="29">
         <v>1</v>
       </c>
       <c r="H6" t="s" s="13">
         <v>56</v>
       </c>
-      <c r="I6" s="33">
+      <c r="I6" s="29">
         <v>3</v>
       </c>
     </row>
@@ -3371,16 +3305,16 @@
       <c r="E7" t="s" s="13">
         <v>171</v>
       </c>
-      <c r="F7" t="s" s="48">
+      <c r="F7" t="s" s="41">
         <v>172</v>
       </c>
-      <c r="G7" s="33">
+      <c r="G7" s="29">
         <v>1</v>
       </c>
       <c r="H7" t="s" s="13">
         <v>60</v>
       </c>
-      <c r="I7" s="33">
+      <c r="I7" s="29">
         <v>4</v>
       </c>
     </row>
@@ -3398,16 +3332,16 @@
       <c r="E8" t="s" s="13">
         <v>171</v>
       </c>
-      <c r="F8" t="s" s="48">
+      <c r="F8" t="s" s="41">
         <v>172</v>
       </c>
-      <c r="G8" s="33">
+      <c r="G8" s="29">
         <v>1</v>
       </c>
       <c r="H8" t="s" s="13">
         <v>64</v>
       </c>
-      <c r="I8" s="33">
+      <c r="I8" s="29">
         <v>5</v>
       </c>
     </row>
@@ -3425,16 +3359,16 @@
       <c r="E9" t="s" s="13">
         <v>173</v>
       </c>
-      <c r="F9" t="s" s="48">
+      <c r="F9" t="s" s="41">
         <v>174</v>
       </c>
-      <c r="G9" s="33">
+      <c r="G9" s="29">
         <v>2</v>
       </c>
       <c r="H9" t="s" s="13">
         <v>68</v>
       </c>
-      <c r="I9" s="33">
+      <c r="I9" s="29">
         <v>1</v>
       </c>
     </row>
@@ -3452,16 +3386,16 @@
       <c r="E10" t="s" s="13">
         <v>171</v>
       </c>
-      <c r="F10" t="s" s="48">
+      <c r="F10" t="s" s="41">
         <v>172</v>
       </c>
-      <c r="G10" s="33">
+      <c r="G10" s="29">
         <v>1</v>
       </c>
       <c r="H10" t="s" s="13">
         <v>47</v>
       </c>
-      <c r="I10" s="33">
+      <c r="I10" s="29">
         <v>1</v>
       </c>
     </row>
@@ -3479,16 +3413,16 @@
       <c r="E11" t="s" s="13">
         <v>171</v>
       </c>
-      <c r="F11" t="s" s="48">
+      <c r="F11" t="s" s="41">
         <v>172</v>
       </c>
-      <c r="G11" s="33">
+      <c r="G11" s="29">
         <v>1</v>
       </c>
       <c r="H11" t="s" s="13">
         <v>52</v>
       </c>
-      <c r="I11" s="33">
+      <c r="I11" s="29">
         <v>2</v>
       </c>
     </row>
@@ -3506,16 +3440,16 @@
       <c r="E12" t="s" s="13">
         <v>171</v>
       </c>
-      <c r="F12" t="s" s="48">
+      <c r="F12" t="s" s="41">
         <v>172</v>
       </c>
-      <c r="G12" s="33">
+      <c r="G12" s="29">
         <v>1</v>
       </c>
       <c r="H12" t="s" s="13">
         <v>56</v>
       </c>
-      <c r="I12" s="33">
+      <c r="I12" s="29">
         <v>3</v>
       </c>
     </row>
@@ -3533,16 +3467,16 @@
       <c r="E13" t="s" s="13">
         <v>171</v>
       </c>
-      <c r="F13" t="s" s="48">
+      <c r="F13" t="s" s="41">
         <v>172</v>
       </c>
-      <c r="G13" s="33">
+      <c r="G13" s="29">
         <v>1</v>
       </c>
       <c r="H13" t="s" s="13">
         <v>60</v>
       </c>
-      <c r="I13" s="33">
+      <c r="I13" s="29">
         <v>4</v>
       </c>
     </row>
@@ -3560,16 +3494,16 @@
       <c r="E14" t="s" s="13">
         <v>171</v>
       </c>
-      <c r="F14" t="s" s="48">
+      <c r="F14" t="s" s="41">
         <v>172</v>
       </c>
-      <c r="G14" s="33">
+      <c r="G14" s="29">
         <v>1</v>
       </c>
       <c r="H14" t="s" s="13">
         <v>64</v>
       </c>
-      <c r="I14" s="33">
+      <c r="I14" s="29">
         <v>5</v>
       </c>
     </row>
@@ -3587,16 +3521,16 @@
       <c r="E15" t="s" s="13">
         <v>173</v>
       </c>
-      <c r="F15" t="s" s="48">
+      <c r="F15" t="s" s="41">
         <v>174</v>
       </c>
-      <c r="G15" s="33">
+      <c r="G15" s="29">
         <v>2</v>
       </c>
       <c r="H15" t="s" s="13">
         <v>68</v>
       </c>
-      <c r="I15" s="33">
+      <c r="I15" s="29">
         <v>1</v>
       </c>
     </row>
@@ -3606,7 +3540,7 @@
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
-      <c r="F16" s="52"/>
+      <c r="F16" s="45"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
@@ -3617,7 +3551,7 @@
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
-      <c r="F17" s="52"/>
+      <c r="F17" s="45"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
@@ -3628,7 +3562,7 @@
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
-      <c r="F18" s="52"/>
+      <c r="F18" s="45"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
@@ -3639,7 +3573,7 @@
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
-      <c r="F19" s="52"/>
+      <c r="F19" s="45"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
@@ -3650,7 +3584,7 @@
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
-      <c r="F20" s="52"/>
+      <c r="F20" s="45"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -3661,7 +3595,7 @@
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
-      <c r="F21" s="52"/>
+      <c r="F21" s="45"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
@@ -3672,7 +3606,7 @@
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
-      <c r="F22" s="52"/>
+      <c r="F22" s="45"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
@@ -3683,7 +3617,7 @@
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
-      <c r="F23" s="52"/>
+      <c r="F23" s="45"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
@@ -3694,7 +3628,7 @@
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
-      <c r="F24" s="52"/>
+      <c r="F24" s="45"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
@@ -3705,7 +3639,7 @@
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
-      <c r="F25" s="52"/>
+      <c r="F25" s="45"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
@@ -3716,7 +3650,7 @@
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
-      <c r="F26" s="52"/>
+      <c r="F26" s="45"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
@@ -3727,7 +3661,7 @@
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
-      <c r="F27" s="52"/>
+      <c r="F27" s="45"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
@@ -3738,7 +3672,7 @@
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
-      <c r="F28" s="52"/>
+      <c r="F28" s="45"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
@@ -3749,7 +3683,7 @@
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
-      <c r="F29" s="52"/>
+      <c r="F29" s="45"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
@@ -3760,7 +3694,7 @@
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
-      <c r="F30" s="52"/>
+      <c r="F30" s="45"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
@@ -3771,7 +3705,7 @@
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
-      <c r="F31" s="52"/>
+      <c r="F31" s="45"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
@@ -3782,7 +3716,7 @@
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
-      <c r="F32" s="52"/>
+      <c r="F32" s="45"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
@@ -3793,7 +3727,7 @@
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
-      <c r="F33" s="52"/>
+      <c r="F33" s="45"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
@@ -3804,7 +3738,7 @@
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
-      <c r="F34" s="52"/>
+      <c r="F34" s="45"/>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
@@ -3815,7 +3749,7 @@
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
-      <c r="F35" s="52"/>
+      <c r="F35" s="45"/>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
@@ -3826,7 +3760,7 @@
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
-      <c r="F36" s="52"/>
+      <c r="F36" s="45"/>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
@@ -3848,13 +3782,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.3333" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.1719" style="75" customWidth="1"/>
-    <col min="2" max="2" width="17.8516" style="75" customWidth="1"/>
-    <col min="3" max="3" width="53.5" style="75" customWidth="1"/>
-    <col min="4" max="4" width="28.3516" style="75" customWidth="1"/>
-    <col min="5" max="5" width="26.8516" style="75" customWidth="1"/>
-    <col min="6" max="6" width="22.8516" style="75" customWidth="1"/>
-    <col min="7" max="16384" width="11.3516" style="75" customWidth="1"/>
+    <col min="1" max="1" width="16.1719" style="64" customWidth="1"/>
+    <col min="2" max="2" width="17.8516" style="64" customWidth="1"/>
+    <col min="3" max="3" width="53.5" style="64" customWidth="1"/>
+    <col min="4" max="4" width="28.3516" style="64" customWidth="1"/>
+    <col min="5" max="5" width="26.8516" style="64" customWidth="1"/>
+    <col min="6" max="6" width="22.8516" style="64" customWidth="1"/>
+    <col min="7" max="16384" width="11.3516" style="64" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.5" customHeight="1">
@@ -3867,18 +3801,18 @@
       <c r="C1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="76">
+      <c r="D1" t="s" s="5">
         <v>3</v>
       </c>
-      <c r="E1" s="77"/>
+      <c r="E1" s="65"/>
       <c r="F1" s="6"/>
     </row>
     <row r="2" ht="13.65" customHeight="1">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
     <row r="3" ht="13.65" customHeight="1">
@@ -3891,10 +3825,10 @@
       <c r="C3" t="s" s="10">
         <v>176</v>
       </c>
-      <c r="D3" t="s" s="78">
+      <c r="D3" t="s" s="16">
         <v>177</v>
       </c>
-      <c r="E3" t="s" s="78">
+      <c r="E3" t="s" s="16">
         <v>178</v>
       </c>
       <c r="F3" t="s" s="16">
@@ -3902,17 +3836,17 @@
       </c>
     </row>
     <row r="4" ht="13.65" customHeight="1">
-      <c r="A4" s="51">
+      <c r="A4" s="44">
         <v>43466</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" t="s" s="13">
         <v>180</v>
       </c>
-      <c r="D4" t="s" s="43">
+      <c r="D4" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E4" t="s" s="43">
+      <c r="E4" t="s" s="13">
         <v>24</v>
       </c>
       <c r="F4" t="s" s="13">
@@ -3923,48 +3857,48 @@
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
       <c r="F5" s="6"/>
     </row>
     <row r="6" ht="13.65" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
       <c r="F6" s="6"/>
     </row>
     <row r="7" ht="13.65" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
       <c r="F7" s="6"/>
     </row>
     <row r="8" ht="13.65" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
       <c r="F8" s="6"/>
     </row>
     <row r="9" ht="13.65" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
       <c r="F9" s="6"/>
     </row>
     <row r="10" ht="13.65" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
       <c r="F10" s="6"/>
     </row>
   </sheetData>
@@ -3987,12 +3921,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="33.3516" style="79" customWidth="1"/>
-    <col min="2" max="2" width="19.3516" style="79" customWidth="1"/>
-    <col min="3" max="3" width="27.3516" style="79" customWidth="1"/>
-    <col min="4" max="4" width="41.6719" style="79" customWidth="1"/>
-    <col min="5" max="5" width="14.3516" style="79" customWidth="1"/>
-    <col min="6" max="16384" width="14.3516" style="79" customWidth="1"/>
+    <col min="1" max="1" width="33.3516" style="66" customWidth="1"/>
+    <col min="2" max="2" width="19.3516" style="66" customWidth="1"/>
+    <col min="3" max="3" width="27.3516" style="66" customWidth="1"/>
+    <col min="4" max="4" width="41.6719" style="66" customWidth="1"/>
+    <col min="5" max="5" width="14.3516" style="66" customWidth="1"/>
+    <col min="6" max="16384" width="14.3516" style="66" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1">
@@ -4041,7 +3975,7 @@
       </c>
     </row>
     <row r="4" ht="13" customHeight="1">
-      <c r="A4" s="80">
+      <c r="A4" s="67">
         <v>43466</v>
       </c>
       <c r="B4" s="6"/>
@@ -4049,14 +3983,14 @@
         <v>24</v>
       </c>
       <c r="D4" t="s" s="13">
+        <v>158</v>
+      </c>
+      <c r="E4" t="s" s="13">
         <v>185</v>
       </c>
-      <c r="E4" t="s" s="13">
-        <v>186</v>
-      </c>
     </row>
     <row r="5" ht="13" customHeight="1">
-      <c r="A5" s="80">
+      <c r="A5" s="67">
         <v>43466</v>
       </c>
       <c r="B5" s="6"/>
@@ -4067,11 +4001,11 @@
         <v>159</v>
       </c>
       <c r="E5" t="s" s="13">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" ht="13" customHeight="1">
-      <c r="A6" s="80">
+      <c r="A6" s="67">
         <v>43466</v>
       </c>
       <c r="B6" s="6"/>
@@ -4082,7 +4016,7 @@
         <v>159</v>
       </c>
       <c r="E6" t="s" s="13">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" ht="13.65" customHeight="1">
@@ -4130,227 +4064,227 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="28.1719" style="81" customWidth="1"/>
-    <col min="2" max="2" width="15.5" style="81" customWidth="1"/>
-    <col min="3" max="3" width="27.8516" style="81" customWidth="1"/>
-    <col min="4" max="4" width="18.6719" style="81" customWidth="1"/>
-    <col min="5" max="5" width="27" style="81" customWidth="1"/>
-    <col min="6" max="6" width="14.5" style="81" customWidth="1"/>
-    <col min="7" max="16384" width="8.85156" style="81" customWidth="1"/>
+    <col min="1" max="1" width="28.1719" style="68" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="68" customWidth="1"/>
+    <col min="3" max="3" width="27.8516" style="68" customWidth="1"/>
+    <col min="4" max="4" width="18.6719" style="68" customWidth="1"/>
+    <col min="5" max="5" width="27" style="68" customWidth="1"/>
+    <col min="6" max="6" width="14.5" style="68" customWidth="1"/>
+    <col min="7" max="16384" width="8.85156" style="68" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1">
-      <c r="A1" t="s" s="82">
+      <c r="A1" t="s" s="69">
+        <v>186</v>
+      </c>
+      <c r="B1" t="s" s="70">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="71">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="72">
+        <v>3</v>
+      </c>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+    </row>
+    <row r="2" ht="70" customHeight="1">
+      <c r="A2" s="74"/>
+      <c r="B2" s="74"/>
+      <c r="C2" t="s" s="75">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s" s="75">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s" s="75">
         <v>187</v>
       </c>
-      <c r="B1" t="s" s="83">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="84">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s" s="85">
-        <v>3</v>
-      </c>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-    </row>
-    <row r="2" ht="70" customHeight="1">
-      <c r="A2" s="87"/>
-      <c r="B2" s="87"/>
-      <c r="C2" t="s" s="88">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s" s="88">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s" s="88">
+      <c r="F2" t="s" s="75">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" ht="13" customHeight="1">
+      <c r="A3" t="s" s="35">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s" s="35">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s" s="76">
+        <v>38</v>
+      </c>
+      <c r="D3" t="s" s="76">
         <v>188</v>
       </c>
-      <c r="F2" t="s" s="88">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="3" ht="13" customHeight="1">
-      <c r="A3" t="s" s="40">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s" s="40">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s" s="89">
-        <v>38</v>
-      </c>
-      <c r="D3" t="s" s="89">
-        <v>189</v>
-      </c>
-      <c r="E3" t="s" s="89">
+      <c r="E3" t="s" s="76">
         <v>157</v>
       </c>
-      <c r="F3" t="s" s="40">
+      <c r="F3" t="s" s="35">
         <v>184</v>
       </c>
     </row>
     <row r="4" ht="13" customHeight="1">
-      <c r="A4" s="90">
-        <v>43466</v>
-      </c>
-      <c r="B4" s="86"/>
-      <c r="C4" t="s" s="91">
+      <c r="A4" s="77">
+        <v>43466</v>
+      </c>
+      <c r="B4" s="73"/>
+      <c r="C4" t="s" s="78">
         <v>24</v>
       </c>
-      <c r="D4" t="s" s="92">
+      <c r="D4" t="s" s="79">
         <v>83</v>
       </c>
-      <c r="E4" t="s" s="93">
+      <c r="E4" t="s" s="80">
+        <v>158</v>
+      </c>
+      <c r="F4" t="s" s="81">
         <v>185</v>
       </c>
-      <c r="F4" t="s" s="94">
-        <v>186</v>
-      </c>
     </row>
     <row r="5" ht="13" customHeight="1">
-      <c r="A5" s="90">
-        <v>43466</v>
-      </c>
-      <c r="B5" s="86"/>
-      <c r="C5" t="s" s="95">
+      <c r="A5" s="77">
+        <v>43466</v>
+      </c>
+      <c r="B5" s="73"/>
+      <c r="C5" t="s" s="82">
         <v>24</v>
       </c>
-      <c r="D5" t="s" s="96">
+      <c r="D5" t="s" s="83">
         <v>85</v>
       </c>
-      <c r="E5" t="s" s="97">
+      <c r="E5" t="s" s="84">
+        <v>158</v>
+      </c>
+      <c r="F5" t="s" s="81">
         <v>185</v>
       </c>
-      <c r="F5" t="s" s="94">
-        <v>186</v>
-      </c>
     </row>
     <row r="6" ht="13" customHeight="1">
-      <c r="A6" s="90">
-        <v>43466</v>
-      </c>
-      <c r="B6" s="86"/>
-      <c r="C6" t="s" s="95">
+      <c r="A6" s="77">
+        <v>43466</v>
+      </c>
+      <c r="B6" s="73"/>
+      <c r="C6" t="s" s="82">
         <v>24</v>
       </c>
-      <c r="D6" t="s" s="96">
+      <c r="D6" t="s" s="83">
         <v>87</v>
       </c>
-      <c r="E6" t="s" s="97">
+      <c r="E6" t="s" s="84">
+        <v>158</v>
+      </c>
+      <c r="F6" t="s" s="81">
         <v>185</v>
       </c>
-      <c r="F6" t="s" s="94">
-        <v>186</v>
-      </c>
     </row>
     <row r="7" ht="13" customHeight="1">
-      <c r="A7" s="90">
-        <v>43466</v>
-      </c>
-      <c r="B7" s="86"/>
-      <c r="C7" t="s" s="95">
+      <c r="A7" s="77">
+        <v>43466</v>
+      </c>
+      <c r="B7" s="73"/>
+      <c r="C7" t="s" s="82">
         <v>24</v>
       </c>
-      <c r="D7" t="s" s="96">
+      <c r="D7" t="s" s="83">
         <v>83</v>
       </c>
-      <c r="E7" t="s" s="97">
+      <c r="E7" t="s" s="84">
         <v>159</v>
       </c>
-      <c r="F7" t="s" s="94">
-        <v>186</v>
+      <c r="F7" t="s" s="81">
+        <v>185</v>
       </c>
     </row>
     <row r="8" ht="13" customHeight="1">
-      <c r="A8" s="90">
-        <v>43466</v>
-      </c>
-      <c r="B8" s="86"/>
-      <c r="C8" t="s" s="95">
+      <c r="A8" s="77">
+        <v>43466</v>
+      </c>
+      <c r="B8" s="73"/>
+      <c r="C8" t="s" s="82">
         <v>24</v>
       </c>
-      <c r="D8" t="s" s="96">
+      <c r="D8" t="s" s="83">
         <v>85</v>
       </c>
-      <c r="E8" t="s" s="97">
+      <c r="E8" t="s" s="84">
         <v>159</v>
       </c>
-      <c r="F8" t="s" s="94">
-        <v>186</v>
+      <c r="F8" t="s" s="81">
+        <v>185</v>
       </c>
     </row>
     <row r="9" ht="13" customHeight="1">
-      <c r="A9" s="90">
-        <v>43466</v>
-      </c>
-      <c r="B9" s="86"/>
-      <c r="C9" t="s" s="95">
+      <c r="A9" s="77">
+        <v>43466</v>
+      </c>
+      <c r="B9" s="73"/>
+      <c r="C9" t="s" s="82">
         <v>24</v>
       </c>
-      <c r="D9" t="s" s="96">
+      <c r="D9" t="s" s="83">
         <v>87</v>
       </c>
-      <c r="E9" t="s" s="97">
+      <c r="E9" t="s" s="84">
         <v>159</v>
       </c>
-      <c r="F9" t="s" s="94">
-        <v>186</v>
+      <c r="F9" t="s" s="81">
+        <v>185</v>
       </c>
     </row>
     <row r="10" ht="13" customHeight="1">
-      <c r="A10" s="90">
-        <v>43466</v>
-      </c>
-      <c r="B10" s="86"/>
-      <c r="C10" t="s" s="95">
+      <c r="A10" s="77">
+        <v>43466</v>
+      </c>
+      <c r="B10" s="73"/>
+      <c r="C10" t="s" s="82">
         <v>28</v>
       </c>
-      <c r="D10" t="s" s="96">
+      <c r="D10" t="s" s="83">
         <v>83</v>
       </c>
-      <c r="E10" t="s" s="97">
+      <c r="E10" t="s" s="84">
         <v>159</v>
       </c>
-      <c r="F10" t="s" s="94">
-        <v>186</v>
+      <c r="F10" t="s" s="81">
+        <v>185</v>
       </c>
     </row>
     <row r="11" ht="13" customHeight="1">
-      <c r="A11" s="90">
-        <v>43466</v>
-      </c>
-      <c r="B11" s="86"/>
-      <c r="C11" t="s" s="95">
+      <c r="A11" s="77">
+        <v>43466</v>
+      </c>
+      <c r="B11" s="73"/>
+      <c r="C11" t="s" s="82">
         <v>28</v>
       </c>
-      <c r="D11" t="s" s="96">
+      <c r="D11" t="s" s="83">
         <v>85</v>
       </c>
-      <c r="E11" t="s" s="97">
+      <c r="E11" t="s" s="84">
         <v>159</v>
       </c>
-      <c r="F11" t="s" s="94">
-        <v>186</v>
+      <c r="F11" t="s" s="81">
+        <v>185</v>
       </c>
     </row>
     <row r="12" ht="13" customHeight="1">
-      <c r="A12" s="90">
-        <v>43466</v>
-      </c>
-      <c r="B12" s="86"/>
-      <c r="C12" t="s" s="95">
+      <c r="A12" s="77">
+        <v>43466</v>
+      </c>
+      <c r="B12" s="73"/>
+      <c r="C12" t="s" s="82">
         <v>28</v>
       </c>
-      <c r="D12" t="s" s="96">
+      <c r="D12" t="s" s="83">
         <v>87</v>
       </c>
-      <c r="E12" t="s" s="98">
+      <c r="E12" t="s" s="85">
         <v>159</v>
       </c>
-      <c r="F12" t="s" s="94">
-        <v>186</v>
+      <c r="F12" t="s" s="81">
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -4370,18 +4304,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="34.3516" style="99" customWidth="1"/>
-    <col min="2" max="2" width="15.3516" style="99" customWidth="1"/>
-    <col min="3" max="3" width="27.8516" style="99" customWidth="1"/>
-    <col min="4" max="4" width="18.6719" style="99" customWidth="1"/>
-    <col min="5" max="5" width="25.8516" style="99" customWidth="1"/>
-    <col min="6" max="6" width="14.3516" style="99" customWidth="1"/>
-    <col min="7" max="16384" width="14.3516" style="99" customWidth="1"/>
+    <col min="1" max="1" width="34.3516" style="86" customWidth="1"/>
+    <col min="2" max="2" width="15.3516" style="86" customWidth="1"/>
+    <col min="3" max="3" width="27.8516" style="86" customWidth="1"/>
+    <col min="4" max="4" width="18.6719" style="86" customWidth="1"/>
+    <col min="5" max="5" width="25.8516" style="86" customWidth="1"/>
+    <col min="6" max="6" width="14.3516" style="86" customWidth="1"/>
+    <col min="7" max="16384" width="14.3516" style="86" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B1" t="s" s="3">
         <v>1</v>
@@ -4405,7 +4339,7 @@
         <v>4</v>
       </c>
       <c r="E2" t="s" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F2" t="s" s="8">
         <v>183</v>
@@ -4424,7 +4358,7 @@
       <c r="D3" t="s" s="16">
         <v>129</v>
       </c>
-      <c r="E3" t="s" s="100">
+      <c r="E3" t="s" s="87">
         <v>157</v>
       </c>
       <c r="F3" t="s" s="13">
@@ -4432,327 +4366,327 @@
       </c>
     </row>
     <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="51">
+      <c r="A4" s="44">
         <v>43466</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" t="s" s="13">
         <v>24</v>
       </c>
-      <c r="D4" t="s" s="101">
+      <c r="D4" t="s" s="83">
         <v>105</v>
       </c>
-      <c r="E4" t="s" s="102">
+      <c r="E4" t="s" s="88">
+        <v>158</v>
+      </c>
+      <c r="F4" t="s" s="89">
         <v>185</v>
       </c>
-      <c r="F4" t="s" s="103">
-        <v>186</v>
-      </c>
     </row>
     <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="51">
+      <c r="A5" s="44">
         <v>43466</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" t="s" s="13">
         <v>24</v>
       </c>
-      <c r="D5" t="s" s="101">
+      <c r="D5" t="s" s="83">
         <v>108</v>
       </c>
-      <c r="E5" t="s" s="102">
+      <c r="E5" t="s" s="88">
+        <v>158</v>
+      </c>
+      <c r="F5" t="s" s="89">
         <v>185</v>
       </c>
-      <c r="F5" t="s" s="103">
-        <v>186</v>
-      </c>
     </row>
     <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="51">
+      <c r="A6" s="44">
         <v>43466</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" t="s" s="13">
         <v>24</v>
       </c>
-      <c r="D6" t="s" s="101">
+      <c r="D6" t="s" s="83">
         <v>110</v>
       </c>
-      <c r="E6" t="s" s="102">
+      <c r="E6" t="s" s="88">
+        <v>158</v>
+      </c>
+      <c r="F6" t="s" s="89">
         <v>185</v>
       </c>
-      <c r="F6" t="s" s="103">
-        <v>186</v>
-      </c>
     </row>
     <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="51">
+      <c r="A7" s="44">
         <v>43466</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" t="s" s="13">
         <v>24</v>
       </c>
-      <c r="D7" t="s" s="101">
+      <c r="D7" t="s" s="83">
         <v>112</v>
       </c>
-      <c r="E7" t="s" s="102">
+      <c r="E7" t="s" s="88">
+        <v>158</v>
+      </c>
+      <c r="F7" t="s" s="89">
         <v>185</v>
       </c>
-      <c r="F7" t="s" s="103">
-        <v>186</v>
-      </c>
     </row>
     <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="51">
+      <c r="A8" s="44">
         <v>43466</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" t="s" s="13">
         <v>24</v>
       </c>
-      <c r="D8" t="s" s="101">
+      <c r="D8" t="s" s="83">
         <v>114</v>
       </c>
-      <c r="E8" t="s" s="102">
+      <c r="E8" t="s" s="88">
+        <v>158</v>
+      </c>
+      <c r="F8" t="s" s="89">
         <v>185</v>
       </c>
-      <c r="F8" t="s" s="103">
-        <v>186</v>
-      </c>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="51">
+      <c r="A9" s="44">
         <v>43466</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" t="s" s="13">
         <v>24</v>
       </c>
-      <c r="D9" t="s" s="101">
+      <c r="D9" t="s" s="83">
         <v>117</v>
       </c>
-      <c r="E9" t="s" s="102">
+      <c r="E9" t="s" s="88">
+        <v>158</v>
+      </c>
+      <c r="F9" t="s" s="89">
         <v>185</v>
       </c>
-      <c r="F9" t="s" s="103">
-        <v>186</v>
-      </c>
     </row>
     <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="51">
+      <c r="A10" s="44">
         <v>43466</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" t="s" s="13">
         <v>24</v>
       </c>
-      <c r="D10" t="s" s="101">
+      <c r="D10" t="s" s="83">
         <v>105</v>
       </c>
-      <c r="E10" t="s" s="102">
+      <c r="E10" t="s" s="88">
         <v>159</v>
       </c>
-      <c r="F10" t="s" s="103">
-        <v>186</v>
+      <c r="F10" t="s" s="89">
+        <v>185</v>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="51">
+      <c r="A11" s="44">
         <v>43466</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" t="s" s="13">
         <v>24</v>
       </c>
-      <c r="D11" t="s" s="101">
+      <c r="D11" t="s" s="83">
         <v>108</v>
       </c>
-      <c r="E11" t="s" s="102">
+      <c r="E11" t="s" s="88">
         <v>159</v>
       </c>
-      <c r="F11" t="s" s="103">
-        <v>186</v>
+      <c r="F11" t="s" s="89">
+        <v>185</v>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="51">
+      <c r="A12" s="44">
         <v>43466</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" t="s" s="13">
         <v>24</v>
       </c>
-      <c r="D12" t="s" s="101">
+      <c r="D12" t="s" s="83">
         <v>110</v>
       </c>
-      <c r="E12" t="s" s="102">
+      <c r="E12" t="s" s="88">
         <v>159</v>
       </c>
-      <c r="F12" t="s" s="103">
-        <v>186</v>
+      <c r="F12" t="s" s="89">
+        <v>185</v>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="51">
+      <c r="A13" s="44">
         <v>43466</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" t="s" s="13">
         <v>24</v>
       </c>
-      <c r="D13" t="s" s="101">
+      <c r="D13" t="s" s="83">
         <v>112</v>
       </c>
-      <c r="E13" t="s" s="102">
+      <c r="E13" t="s" s="88">
         <v>159</v>
       </c>
-      <c r="F13" t="s" s="103">
-        <v>186</v>
+      <c r="F13" t="s" s="89">
+        <v>185</v>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="51">
+      <c r="A14" s="44">
         <v>43466</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" t="s" s="13">
         <v>24</v>
       </c>
-      <c r="D14" t="s" s="101">
+      <c r="D14" t="s" s="83">
         <v>114</v>
       </c>
-      <c r="E14" t="s" s="102">
+      <c r="E14" t="s" s="88">
         <v>159</v>
       </c>
-      <c r="F14" t="s" s="103">
-        <v>186</v>
+      <c r="F14" t="s" s="89">
+        <v>185</v>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
-      <c r="A15" s="51">
+      <c r="A15" s="44">
         <v>43466</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" t="s" s="13">
         <v>24</v>
       </c>
-      <c r="D15" t="s" s="101">
+      <c r="D15" t="s" s="83">
         <v>117</v>
       </c>
-      <c r="E15" t="s" s="102">
+      <c r="E15" t="s" s="88">
         <v>159</v>
       </c>
-      <c r="F15" t="s" s="103">
-        <v>186</v>
+      <c r="F15" t="s" s="89">
+        <v>185</v>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
-      <c r="A16" s="51">
+      <c r="A16" s="44">
         <v>43466</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" t="s" s="13">
         <v>28</v>
       </c>
-      <c r="D16" t="s" s="101">
+      <c r="D16" t="s" s="83">
         <v>105</v>
       </c>
-      <c r="E16" t="s" s="102">
+      <c r="E16" t="s" s="88">
         <v>159</v>
       </c>
-      <c r="F16" t="s" s="103">
-        <v>186</v>
+      <c r="F16" t="s" s="89">
+        <v>185</v>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
-      <c r="A17" s="51">
+      <c r="A17" s="44">
         <v>43466</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" t="s" s="13">
         <v>28</v>
       </c>
-      <c r="D17" t="s" s="101">
+      <c r="D17" t="s" s="83">
         <v>108</v>
       </c>
-      <c r="E17" t="s" s="102">
+      <c r="E17" t="s" s="88">
         <v>159</v>
       </c>
-      <c r="F17" t="s" s="103">
-        <v>186</v>
+      <c r="F17" t="s" s="89">
+        <v>185</v>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
-      <c r="A18" s="51">
+      <c r="A18" s="44">
         <v>43466</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" t="s" s="13">
         <v>28</v>
       </c>
-      <c r="D18" t="s" s="101">
+      <c r="D18" t="s" s="83">
         <v>110</v>
       </c>
-      <c r="E18" t="s" s="102">
+      <c r="E18" t="s" s="88">
         <v>159</v>
       </c>
-      <c r="F18" t="s" s="103">
-        <v>186</v>
+      <c r="F18" t="s" s="89">
+        <v>185</v>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
-      <c r="A19" s="51">
+      <c r="A19" s="44">
         <v>43466</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" t="s" s="13">
         <v>28</v>
       </c>
-      <c r="D19" t="s" s="101">
+      <c r="D19" t="s" s="83">
         <v>112</v>
       </c>
-      <c r="E19" t="s" s="102">
+      <c r="E19" t="s" s="88">
         <v>159</v>
       </c>
-      <c r="F19" t="s" s="103">
-        <v>186</v>
+      <c r="F19" t="s" s="89">
+        <v>185</v>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1">
-      <c r="A20" s="51">
+      <c r="A20" s="44">
         <v>43466</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" t="s" s="13">
         <v>28</v>
       </c>
-      <c r="D20" t="s" s="101">
+      <c r="D20" t="s" s="83">
         <v>114</v>
       </c>
-      <c r="E20" t="s" s="102">
+      <c r="E20" t="s" s="88">
         <v>159</v>
       </c>
-      <c r="F20" t="s" s="103">
-        <v>186</v>
+      <c r="F20" t="s" s="89">
+        <v>185</v>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1">
-      <c r="A21" s="51">
+      <c r="A21" s="44">
         <v>43466</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" t="s" s="13">
         <v>28</v>
       </c>
-      <c r="D21" t="s" s="101">
+      <c r="D21" t="s" s="83">
         <v>117</v>
       </c>
-      <c r="E21" t="s" s="104">
+      <c r="E21" t="s" s="90">
         <v>159</v>
       </c>
-      <c r="F21" t="s" s="103">
-        <v>186</v>
+      <c r="F21" t="s" s="89">
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -4772,18 +4706,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="33" style="105" customWidth="1"/>
-    <col min="2" max="2" width="15.3516" style="105" customWidth="1"/>
-    <col min="3" max="3" width="27.3516" style="105" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="105" customWidth="1"/>
-    <col min="5" max="5" width="21.8516" style="105" customWidth="1"/>
-    <col min="6" max="6" width="14.3516" style="105" customWidth="1"/>
-    <col min="7" max="16384" width="14.3516" style="105" customWidth="1"/>
+    <col min="1" max="1" width="33" style="91" customWidth="1"/>
+    <col min="2" max="2" width="15.3516" style="91" customWidth="1"/>
+    <col min="3" max="3" width="27.3516" style="91" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="91" customWidth="1"/>
+    <col min="5" max="5" width="21.8516" style="91" customWidth="1"/>
+    <col min="6" max="6" width="14.3516" style="91" customWidth="1"/>
+    <col min="7" max="16384" width="14.3516" style="91" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B1" t="s" s="3">
         <v>1</v>
@@ -4809,7 +4743,7 @@
       <c r="E2" t="s" s="8">
         <v>4</v>
       </c>
-      <c r="F2" t="s" s="27">
+      <c r="F2" t="s" s="15">
         <v>183</v>
       </c>
     </row>
@@ -4826,7 +4760,7 @@
       <c r="D3" t="s" s="16">
         <v>130</v>
       </c>
-      <c r="E3" t="s" s="100">
+      <c r="E3" t="s" s="87">
         <v>157</v>
       </c>
       <c r="F3" t="s" s="13">
@@ -4834,339 +4768,339 @@
       </c>
     </row>
     <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="51">
+      <c r="A4" s="44">
         <v>43466</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" t="s" s="13">
         <v>24</v>
       </c>
-      <c r="D4" t="s" s="101">
+      <c r="D4" t="s" s="83">
         <v>47</v>
       </c>
-      <c r="E4" t="s" s="102">
+      <c r="E4" t="s" s="88">
+        <v>158</v>
+      </c>
+      <c r="F4" t="s" s="89">
         <v>185</v>
       </c>
-      <c r="F4" t="s" s="103">
-        <v>186</v>
-      </c>
     </row>
     <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="51">
+      <c r="A5" s="44">
         <v>43466</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" t="s" s="13">
         <v>24</v>
       </c>
-      <c r="D5" t="s" s="101">
+      <c r="D5" t="s" s="83">
         <v>52</v>
       </c>
-      <c r="E5" t="s" s="102">
+      <c r="E5" t="s" s="88">
+        <v>158</v>
+      </c>
+      <c r="F5" t="s" s="89">
         <v>185</v>
       </c>
-      <c r="F5" t="s" s="103">
-        <v>186</v>
-      </c>
     </row>
     <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="51">
+      <c r="A6" s="44">
         <v>43466</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" t="s" s="13">
         <v>24</v>
       </c>
-      <c r="D6" t="s" s="101">
+      <c r="D6" t="s" s="83">
         <v>56</v>
       </c>
-      <c r="E6" t="s" s="102">
+      <c r="E6" t="s" s="88">
+        <v>158</v>
+      </c>
+      <c r="F6" t="s" s="89">
         <v>185</v>
       </c>
-      <c r="F6" t="s" s="103">
-        <v>186</v>
-      </c>
     </row>
     <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="51">
+      <c r="A7" s="44">
         <v>43466</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" t="s" s="13">
         <v>24</v>
       </c>
-      <c r="D7" t="s" s="101">
+      <c r="D7" t="s" s="83">
         <v>60</v>
       </c>
-      <c r="E7" t="s" s="102">
+      <c r="E7" t="s" s="88">
+        <v>158</v>
+      </c>
+      <c r="F7" t="s" s="89">
         <v>185</v>
       </c>
-      <c r="F7" t="s" s="103">
-        <v>186</v>
-      </c>
     </row>
     <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="51">
+      <c r="A8" s="44">
         <v>43466</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" t="s" s="13">
         <v>24</v>
       </c>
-      <c r="D8" t="s" s="101">
+      <c r="D8" t="s" s="83">
         <v>64</v>
       </c>
-      <c r="E8" t="s" s="102">
+      <c r="E8" t="s" s="88">
+        <v>158</v>
+      </c>
+      <c r="F8" t="s" s="89">
         <v>185</v>
       </c>
-      <c r="F8" t="s" s="103">
-        <v>186</v>
-      </c>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="51">
+      <c r="A9" s="44">
         <v>43466</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" t="s" s="13">
         <v>24</v>
       </c>
-      <c r="D9" t="s" s="101">
+      <c r="D9" t="s" s="83">
         <v>68</v>
       </c>
-      <c r="E9" t="s" s="102">
+      <c r="E9" t="s" s="88">
+        <v>158</v>
+      </c>
+      <c r="F9" t="s" s="89">
         <v>185</v>
       </c>
-      <c r="F9" t="s" s="103">
-        <v>186</v>
-      </c>
     </row>
     <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="51">
+      <c r="A10" s="44">
         <v>43466</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" t="s" s="13">
         <v>24</v>
       </c>
-      <c r="D10" t="s" s="101">
+      <c r="D10" t="s" s="83">
         <v>47</v>
       </c>
-      <c r="E10" t="s" s="102">
+      <c r="E10" t="s" s="88">
         <v>159</v>
       </c>
-      <c r="F10" t="s" s="103">
-        <v>186</v>
+      <c r="F10" t="s" s="89">
+        <v>185</v>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="51">
+      <c r="A11" s="44">
         <v>43466</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" t="s" s="13">
         <v>24</v>
       </c>
-      <c r="D11" t="s" s="101">
+      <c r="D11" t="s" s="83">
         <v>52</v>
       </c>
-      <c r="E11" t="s" s="102">
+      <c r="E11" t="s" s="88">
         <v>159</v>
       </c>
-      <c r="F11" t="s" s="103">
-        <v>186</v>
+      <c r="F11" t="s" s="89">
+        <v>185</v>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="51">
+      <c r="A12" s="44">
         <v>43466</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" t="s" s="13">
         <v>24</v>
       </c>
-      <c r="D12" t="s" s="101">
+      <c r="D12" t="s" s="83">
         <v>56</v>
       </c>
-      <c r="E12" t="s" s="102">
+      <c r="E12" t="s" s="88">
         <v>159</v>
       </c>
-      <c r="F12" t="s" s="103">
-        <v>186</v>
+      <c r="F12" t="s" s="89">
+        <v>185</v>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="51">
+      <c r="A13" s="44">
         <v>43466</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" t="s" s="13">
         <v>24</v>
       </c>
-      <c r="D13" t="s" s="101">
+      <c r="D13" t="s" s="83">
         <v>60</v>
       </c>
-      <c r="E13" t="s" s="102">
+      <c r="E13" t="s" s="88">
         <v>159</v>
       </c>
-      <c r="F13" t="s" s="103">
-        <v>186</v>
+      <c r="F13" t="s" s="89">
+        <v>185</v>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="51">
+      <c r="A14" s="44">
         <v>43466</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" t="s" s="13">
         <v>24</v>
       </c>
-      <c r="D14" t="s" s="101">
+      <c r="D14" t="s" s="83">
         <v>64</v>
       </c>
-      <c r="E14" t="s" s="102">
+      <c r="E14" t="s" s="88">
         <v>159</v>
       </c>
-      <c r="F14" t="s" s="103">
-        <v>186</v>
+      <c r="F14" t="s" s="89">
+        <v>185</v>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
-      <c r="A15" s="51">
+      <c r="A15" s="44">
         <v>43466</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" t="s" s="13">
         <v>24</v>
       </c>
-      <c r="D15" t="s" s="101">
+      <c r="D15" t="s" s="83">
         <v>68</v>
       </c>
-      <c r="E15" t="s" s="102">
+      <c r="E15" t="s" s="88">
         <v>159</v>
       </c>
-      <c r="F15" t="s" s="103">
-        <v>186</v>
+      <c r="F15" t="s" s="89">
+        <v>185</v>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
-      <c r="A16" s="51">
+      <c r="A16" s="44">
         <v>43466</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" t="s" s="13">
         <v>28</v>
       </c>
-      <c r="D16" t="s" s="101">
+      <c r="D16" t="s" s="83">
         <v>47</v>
       </c>
-      <c r="E16" t="s" s="102">
+      <c r="E16" t="s" s="88">
         <v>159</v>
       </c>
-      <c r="F16" t="s" s="103">
-        <v>186</v>
+      <c r="F16" t="s" s="89">
+        <v>185</v>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
-      <c r="A17" s="51">
+      <c r="A17" s="44">
         <v>43466</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" t="s" s="13">
         <v>28</v>
       </c>
-      <c r="D17" t="s" s="101">
+      <c r="D17" t="s" s="83">
         <v>52</v>
       </c>
-      <c r="E17" t="s" s="102">
+      <c r="E17" t="s" s="88">
         <v>159</v>
       </c>
-      <c r="F17" t="s" s="103">
-        <v>186</v>
+      <c r="F17" t="s" s="89">
+        <v>185</v>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
-      <c r="A18" s="51">
+      <c r="A18" s="44">
         <v>43466</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" t="s" s="13">
         <v>28</v>
       </c>
-      <c r="D18" t="s" s="101">
+      <c r="D18" t="s" s="83">
         <v>56</v>
       </c>
-      <c r="E18" t="s" s="102">
+      <c r="E18" t="s" s="88">
         <v>159</v>
       </c>
-      <c r="F18" t="s" s="103">
-        <v>186</v>
+      <c r="F18" t="s" s="89">
+        <v>185</v>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
-      <c r="A19" s="51">
+      <c r="A19" s="44">
         <v>43466</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" t="s" s="13">
         <v>28</v>
       </c>
-      <c r="D19" t="s" s="101">
+      <c r="D19" t="s" s="83">
         <v>60</v>
       </c>
-      <c r="E19" t="s" s="102">
+      <c r="E19" t="s" s="88">
         <v>159</v>
       </c>
-      <c r="F19" t="s" s="103">
-        <v>186</v>
+      <c r="F19" t="s" s="89">
+        <v>185</v>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1">
-      <c r="A20" s="51">
+      <c r="A20" s="44">
         <v>43466</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" t="s" s="13">
         <v>28</v>
       </c>
-      <c r="D20" t="s" s="101">
+      <c r="D20" t="s" s="83">
         <v>64</v>
       </c>
-      <c r="E20" t="s" s="102">
+      <c r="E20" t="s" s="88">
         <v>159</v>
       </c>
-      <c r="F20" t="s" s="103">
-        <v>186</v>
+      <c r="F20" t="s" s="89">
+        <v>185</v>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1">
-      <c r="A21" s="51">
+      <c r="A21" s="44">
         <v>43466</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" t="s" s="13">
         <v>28</v>
       </c>
-      <c r="D21" t="s" s="101">
+      <c r="D21" t="s" s="83">
         <v>68</v>
       </c>
-      <c r="E21" t="s" s="102">
+      <c r="E21" t="s" s="88">
         <v>159</v>
       </c>
-      <c r="F21" t="s" s="103">
-        <v>186</v>
+      <c r="F21" t="s" s="89">
+        <v>185</v>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
-      <c r="A22" s="51"/>
+      <c r="A22" s="44"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
-      <c r="E22" s="106"/>
+      <c r="E22" s="92"/>
       <c r="F22" s="6"/>
     </row>
     <row r="23" ht="15" customHeight="1">
-      <c r="A23" s="51"/>
+      <c r="A23" s="44"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -5174,7 +5108,7 @@
       <c r="F23" s="6"/>
     </row>
     <row r="24" ht="15" customHeight="1">
-      <c r="A24" s="51"/>
+      <c r="A24" s="44"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -5182,7 +5116,7 @@
       <c r="F24" s="6"/>
     </row>
     <row r="25" ht="15" customHeight="1">
-      <c r="A25" s="51"/>
+      <c r="A25" s="44"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
@@ -5190,7 +5124,7 @@
       <c r="F25" s="6"/>
     </row>
     <row r="26" ht="15" customHeight="1">
-      <c r="A26" s="51"/>
+      <c r="A26" s="44"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
@@ -5198,7 +5132,7 @@
       <c r="F26" s="6"/>
     </row>
     <row r="27" ht="15" customHeight="1">
-      <c r="A27" s="51"/>
+      <c r="A27" s="44"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -5206,7 +5140,7 @@
       <c r="F27" s="6"/>
     </row>
     <row r="28" ht="15" customHeight="1">
-      <c r="A28" s="51"/>
+      <c r="A28" s="44"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
@@ -5214,7 +5148,7 @@
       <c r="F28" s="6"/>
     </row>
     <row r="29" ht="15" customHeight="1">
-      <c r="A29" s="51"/>
+      <c r="A29" s="44"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
@@ -5222,7 +5156,7 @@
       <c r="F29" s="6"/>
     </row>
     <row r="30" ht="15" customHeight="1">
-      <c r="A30" s="51"/>
+      <c r="A30" s="44"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
@@ -5230,7 +5164,7 @@
       <c r="F30" s="6"/>
     </row>
     <row r="31" ht="15" customHeight="1">
-      <c r="A31" s="51"/>
+      <c r="A31" s="44"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
@@ -5238,7 +5172,7 @@
       <c r="F31" s="6"/>
     </row>
     <row r="32" ht="15" customHeight="1">
-      <c r="A32" s="51"/>
+      <c r="A32" s="44"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
@@ -5246,7 +5180,7 @@
       <c r="F32" s="6"/>
     </row>
     <row r="33" ht="15" customHeight="1">
-      <c r="A33" s="51"/>
+      <c r="A33" s="44"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
@@ -5254,7 +5188,7 @@
       <c r="F33" s="6"/>
     </row>
     <row r="34" ht="15" customHeight="1">
-      <c r="A34" s="51"/>
+      <c r="A34" s="44"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
@@ -5262,7 +5196,7 @@
       <c r="F34" s="6"/>
     </row>
     <row r="35" ht="15" customHeight="1">
-      <c r="A35" s="51"/>
+      <c r="A35" s="44"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
@@ -5270,7 +5204,7 @@
       <c r="F35" s="6"/>
     </row>
     <row r="36" ht="15" customHeight="1">
-      <c r="A36" s="51"/>
+      <c r="A36" s="44"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
@@ -5278,7 +5212,7 @@
       <c r="F36" s="6"/>
     </row>
     <row r="37" ht="15" customHeight="1">
-      <c r="A37" s="51"/>
+      <c r="A37" s="44"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
@@ -5286,7 +5220,7 @@
       <c r="F37" s="6"/>
     </row>
     <row r="38" ht="15" customHeight="1">
-      <c r="A38" s="51"/>
+      <c r="A38" s="44"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
@@ -5294,7 +5228,7 @@
       <c r="F38" s="6"/>
     </row>
     <row r="39" ht="15" customHeight="1">
-      <c r="A39" s="51"/>
+      <c r="A39" s="44"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
@@ -5302,7 +5236,7 @@
       <c r="F39" s="6"/>
     </row>
     <row r="40" ht="15" customHeight="1">
-      <c r="A40" s="51"/>
+      <c r="A40" s="44"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
@@ -5310,7 +5244,7 @@
       <c r="F40" s="6"/>
     </row>
     <row r="41" ht="15" customHeight="1">
-      <c r="A41" s="51"/>
+      <c r="A41" s="44"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
@@ -5318,7 +5252,7 @@
       <c r="F41" s="6"/>
     </row>
     <row r="42" ht="15" customHeight="1">
-      <c r="A42" s="51"/>
+      <c r="A42" s="44"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
@@ -5342,137 +5276,137 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="33.1719" style="107" customWidth="1"/>
-    <col min="2" max="2" width="14.5" style="107" customWidth="1"/>
-    <col min="3" max="3" width="25.5" style="107" customWidth="1"/>
-    <col min="4" max="4" width="15.3516" style="107" customWidth="1"/>
-    <col min="5" max="5" width="57.6719" style="107" customWidth="1"/>
-    <col min="6" max="6" width="22.3516" style="107" customWidth="1"/>
-    <col min="7" max="7" width="20.3516" style="107" customWidth="1"/>
-    <col min="8" max="16384" width="10.8516" style="107" customWidth="1"/>
+    <col min="1" max="1" width="33.1719" style="93" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="93" customWidth="1"/>
+    <col min="3" max="3" width="25.5" style="93" customWidth="1"/>
+    <col min="4" max="4" width="15.3516" style="93" customWidth="1"/>
+    <col min="5" max="5" width="57.6719" style="93" customWidth="1"/>
+    <col min="6" max="6" width="22.3516" style="93" customWidth="1"/>
+    <col min="7" max="7" width="20.3516" style="93" customWidth="1"/>
+    <col min="8" max="16384" width="10.8516" style="93" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1">
-      <c r="A1" t="s" s="108">
+      <c r="A1" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="B1" t="s" s="3">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="94">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+    </row>
+    <row r="2" ht="70" customHeight="1">
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" t="s" s="15">
         <v>192</v>
       </c>
-      <c r="B1" t="s" s="109">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="110">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s" s="111">
-        <v>3</v>
-      </c>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-    </row>
-    <row r="2" ht="70" customHeight="1">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" t="s" s="27">
+      <c r="D2" t="s" s="15">
         <v>193</v>
       </c>
-      <c r="D2" t="s" s="27">
+      <c r="E2" t="s" s="15">
         <v>194</v>
       </c>
-      <c r="E2" t="s" s="27">
+      <c r="F2" t="s" s="15">
         <v>195</v>
       </c>
-      <c r="F2" t="s" s="27">
+      <c r="G2" t="s" s="15">
         <v>196</v>
       </c>
-      <c r="G2" t="s" s="27">
-        <v>197</v>
-      </c>
     </row>
     <row r="3" ht="13.65" customHeight="1">
-      <c r="A3" t="s" s="28">
+      <c r="A3" t="s" s="9">
         <v>7</v>
       </c>
-      <c r="B3" t="s" s="28">
+      <c r="B3" t="s" s="9">
         <v>8</v>
       </c>
-      <c r="C3" t="s" s="112">
+      <c r="C3" t="s" s="28">
         <v>38</v>
       </c>
-      <c r="D3" t="s" s="112">
+      <c r="D3" t="s" s="28">
         <v>130</v>
       </c>
-      <c r="E3" t="s" s="112">
+      <c r="E3" t="s" s="28">
         <v>74</v>
       </c>
-      <c r="F3" t="s" s="113">
+      <c r="F3" t="s" s="95">
         <v>157</v>
       </c>
-      <c r="G3" t="s" s="28">
+      <c r="G3" t="s" s="9">
         <v>184</v>
       </c>
     </row>
     <row r="4" ht="13.65" customHeight="1">
-      <c r="A4" s="114"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="115"/>
-      <c r="F4" s="116"/>
-      <c r="G4" s="117"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="97"/>
     </row>
     <row r="5" ht="13.65" customHeight="1">
-      <c r="A5" s="114"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="115"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="117"/>
+      <c r="A5" s="44"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="97"/>
     </row>
     <row r="6" ht="13.65" customHeight="1">
-      <c r="A6" s="114"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="117"/>
+      <c r="A6" s="44"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="97"/>
     </row>
     <row r="7" ht="13.65" customHeight="1">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="25"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="92"/>
+      <c r="G7" s="6"/>
     </row>
     <row r="8" ht="13.65" customHeight="1">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
     </row>
     <row r="9" ht="13.65" customHeight="1">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
     </row>
     <row r="10" ht="13.65" customHeight="1">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6575,7 +6509,7 @@
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
-      <c r="I1" s="25"/>
+      <c r="I1" s="6"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
@@ -6603,7 +6537,7 @@
       <c r="H2" t="s" s="8">
         <v>34</v>
       </c>
-      <c r="I2" t="s" s="26">
+      <c r="I2" t="s" s="25">
         <v>77</v>
       </c>
       <c r="J2" t="s" s="8">
@@ -6612,7 +6546,7 @@
       <c r="K2" t="s" s="8">
         <v>36</v>
       </c>
-      <c r="L2" t="s" s="27">
+      <c r="L2" t="s" s="15">
         <v>19</v>
       </c>
       <c r="M2" s="7"/>
@@ -6643,7 +6577,7 @@
       <c r="H3" t="s" s="9">
         <v>40</v>
       </c>
-      <c r="I3" t="s" s="28">
+      <c r="I3" t="s" s="9">
         <v>79</v>
       </c>
       <c r="J3" t="s" s="16">
@@ -6664,35 +6598,35 @@
     </row>
     <row r="4" ht="12.75" customHeight="1">
       <c r="A4" s="11"/>
-      <c r="B4" s="29"/>
+      <c r="B4" s="26"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="30"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
     </row>
     <row r="5" ht="12.75" customHeight="1">
       <c r="A5" s="11"/>
-      <c r="B5" s="29"/>
+      <c r="B5" s="26"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="30"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
     </row>
     <row r="6" ht="12.75" customHeight="1">
       <c r="A6" s="11"/>
@@ -6703,7 +6637,7 @@
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
-      <c r="I6" s="25"/>
+      <c r="I6" s="6"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
@@ -6719,7 +6653,7 @@
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
-      <c r="I7" s="25"/>
+      <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
@@ -6735,7 +6669,7 @@
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
-      <c r="I8" s="25"/>
+      <c r="I8" s="6"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
@@ -6751,7 +6685,7 @@
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
-      <c r="I9" s="25"/>
+      <c r="I9" s="6"/>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
@@ -6767,7 +6701,7 @@
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
-      <c r="I10" s="25"/>
+      <c r="I10" s="6"/>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
@@ -6791,14 +6725,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="11.3516" style="31" customWidth="1"/>
-    <col min="2" max="2" width="15.3516" style="31" customWidth="1"/>
-    <col min="3" max="3" width="27.8516" style="31" customWidth="1"/>
-    <col min="4" max="4" width="39.3516" style="31" customWidth="1"/>
-    <col min="5" max="5" width="31.6719" style="31" customWidth="1"/>
-    <col min="6" max="6" width="32" style="31" customWidth="1"/>
-    <col min="7" max="7" width="12.6719" style="31" customWidth="1"/>
-    <col min="8" max="16384" width="14.3516" style="31" customWidth="1"/>
+    <col min="1" max="1" width="11.3516" style="27" customWidth="1"/>
+    <col min="2" max="2" width="15.3516" style="27" customWidth="1"/>
+    <col min="3" max="3" width="27.8516" style="27" customWidth="1"/>
+    <col min="4" max="4" width="39.3516" style="27" customWidth="1"/>
+    <col min="5" max="5" width="31.6719" style="27" customWidth="1"/>
+    <col min="6" max="6" width="32" style="27" customWidth="1"/>
+    <col min="7" max="7" width="12.6719" style="27" customWidth="1"/>
+    <col min="8" max="16384" width="14.3516" style="27" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1">
@@ -6822,7 +6756,7 @@
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
-      <c r="D2" t="s" s="26">
+      <c r="D2" t="s" s="25">
         <v>81</v>
       </c>
       <c r="E2" t="s" s="8">
@@ -6838,7 +6772,7 @@
       <c r="B3" t="s" s="9">
         <v>8</v>
       </c>
-      <c r="C3" t="s" s="32">
+      <c r="C3" t="s" s="28">
         <v>38</v>
       </c>
       <c r="D3" t="s" s="10">
@@ -6869,7 +6803,7 @@
         <v>84</v>
       </c>
       <c r="F4" s="6"/>
-      <c r="G4" s="33">
+      <c r="G4" s="29">
         <v>1</v>
       </c>
     </row>
@@ -6888,7 +6822,7 @@
         <v>86</v>
       </c>
       <c r="F5" s="6"/>
-      <c r="G5" s="33">
+      <c r="G5" s="29">
         <v>2</v>
       </c>
     </row>
@@ -6907,7 +6841,7 @@
         <v>88</v>
       </c>
       <c r="F6" s="6"/>
-      <c r="G6" s="33">
+      <c r="G6" s="29">
         <v>3</v>
       </c>
     </row>
@@ -6926,7 +6860,7 @@
         <v>84</v>
       </c>
       <c r="F7" s="6"/>
-      <c r="G7" s="33">
+      <c r="G7" s="29">
         <v>1</v>
       </c>
     </row>
@@ -6945,7 +6879,7 @@
         <v>86</v>
       </c>
       <c r="F8" s="6"/>
-      <c r="G8" s="33">
+      <c r="G8" s="29">
         <v>2</v>
       </c>
     </row>
@@ -6964,7 +6898,7 @@
         <v>88</v>
       </c>
       <c r="F9" s="6"/>
-      <c r="G9" s="33">
+      <c r="G9" s="29">
         <v>3</v>
       </c>
     </row>
@@ -6994,24 +6928,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="15.6719" style="34" customWidth="1"/>
-    <col min="2" max="2" width="15.3516" style="34" customWidth="1"/>
-    <col min="3" max="3" width="27.8516" style="34" customWidth="1"/>
-    <col min="4" max="4" width="18.6719" style="34" customWidth="1"/>
-    <col min="5" max="5" width="34.6719" style="34" customWidth="1"/>
-    <col min="6" max="6" width="45.3516" style="34" customWidth="1"/>
-    <col min="7" max="7" width="12.6719" style="34" customWidth="1"/>
-    <col min="8" max="8" width="45.3516" style="34" customWidth="1"/>
-    <col min="9" max="9" width="25.6719" style="34" customWidth="1"/>
-    <col min="10" max="10" width="29.6719" style="34" customWidth="1"/>
-    <col min="11" max="11" width="32" style="34" customWidth="1"/>
-    <col min="12" max="12" width="31.3516" style="34" customWidth="1"/>
-    <col min="13" max="13" width="29.8516" style="34" customWidth="1"/>
-    <col min="14" max="14" width="26.6719" style="34" customWidth="1"/>
-    <col min="15" max="15" width="29.3516" style="34" customWidth="1"/>
-    <col min="16" max="16" width="23.6719" style="34" customWidth="1"/>
-    <col min="17" max="17" width="31.1719" style="34" customWidth="1"/>
-    <col min="18" max="16384" width="14.3516" style="34" customWidth="1"/>
+    <col min="1" max="1" width="15.6719" style="30" customWidth="1"/>
+    <col min="2" max="2" width="15.3516" style="30" customWidth="1"/>
+    <col min="3" max="3" width="27.8516" style="30" customWidth="1"/>
+    <col min="4" max="4" width="18.6719" style="30" customWidth="1"/>
+    <col min="5" max="5" width="34.6719" style="30" customWidth="1"/>
+    <col min="6" max="6" width="45.3516" style="30" customWidth="1"/>
+    <col min="7" max="7" width="12.6719" style="30" customWidth="1"/>
+    <col min="8" max="8" width="45.3516" style="30" customWidth="1"/>
+    <col min="9" max="9" width="25.6719" style="30" customWidth="1"/>
+    <col min="10" max="10" width="29.6719" style="30" customWidth="1"/>
+    <col min="11" max="11" width="32" style="30" customWidth="1"/>
+    <col min="12" max="12" width="31.3516" style="30" customWidth="1"/>
+    <col min="13" max="13" width="29.8516" style="30" customWidth="1"/>
+    <col min="14" max="14" width="26.6719" style="30" customWidth="1"/>
+    <col min="15" max="15" width="29.3516" style="30" customWidth="1"/>
+    <col min="16" max="16" width="23.6719" style="30" customWidth="1"/>
+    <col min="17" max="17" width="31.1719" style="30" customWidth="1"/>
+    <col min="18" max="16384" width="14.3516" style="30" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1">
@@ -7032,12 +6966,12 @@
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
       <c r="P1" s="6"/>
       <c r="Q1" s="6"/>
     </row>
@@ -7056,37 +6990,37 @@
       <c r="F2" t="s" s="8">
         <v>90</v>
       </c>
-      <c r="G2" t="s" s="27">
+      <c r="G2" t="s" s="15">
         <v>91</v>
       </c>
-      <c r="H2" t="s" s="27">
+      <c r="H2" t="s" s="15">
         <v>92</v>
       </c>
-      <c r="I2" t="s" s="27">
+      <c r="I2" t="s" s="15">
         <v>93</v>
       </c>
-      <c r="J2" t="s" s="27">
+      <c r="J2" t="s" s="15">
         <v>94</v>
       </c>
-      <c r="K2" t="s" s="27">
+      <c r="K2" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="L2" t="s" s="27">
+      <c r="L2" t="s" s="15">
         <v>94</v>
       </c>
-      <c r="M2" t="s" s="27">
+      <c r="M2" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="N2" t="s" s="27">
+      <c r="N2" t="s" s="15">
         <v>94</v>
       </c>
-      <c r="O2" t="s" s="27">
+      <c r="O2" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="P2" t="s" s="27">
+      <c r="P2" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="Q2" t="s" s="27">
+      <c r="Q2" t="s" s="15">
         <v>95</v>
       </c>
     </row>
@@ -7097,7 +7031,7 @@
       <c r="B3" t="s" s="9">
         <v>8</v>
       </c>
-      <c r="C3" t="s" s="32">
+      <c r="C3" t="s" s="28">
         <v>38</v>
       </c>
       <c r="D3" t="s" s="10">
@@ -7158,19 +7092,19 @@
         <v>106</v>
       </c>
       <c r="F4" s="6"/>
-      <c r="G4" s="33">
+      <c r="G4" s="29">
         <v>1</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" t="s" s="13">
         <v>83</v>
       </c>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
       <c r="P4" t="s" s="13">
         <v>27</v>
       </c>
@@ -7193,7 +7127,7 @@
         <v>109</v>
       </c>
       <c r="F5" s="6"/>
-      <c r="G5" s="33">
+      <c r="G5" s="29">
         <v>2</v>
       </c>
       <c r="H5" t="s" s="13">
@@ -7202,12 +7136,12 @@
       <c r="I5" t="s" s="13">
         <v>85</v>
       </c>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="35"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
       <c r="P5" t="s" s="13">
         <v>27</v>
       </c>
@@ -7230,7 +7164,7 @@
         <v>111</v>
       </c>
       <c r="F6" s="6"/>
-      <c r="G6" s="33">
+      <c r="G6" s="29">
         <v>3</v>
       </c>
       <c r="H6" t="s" s="13">
@@ -7239,12 +7173,12 @@
       <c r="I6" t="s" s="13">
         <v>83</v>
       </c>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
       <c r="P6" t="s" s="13">
         <v>27</v>
       </c>
@@ -7267,7 +7201,7 @@
         <v>113</v>
       </c>
       <c r="F7" s="6"/>
-      <c r="G7" s="33">
+      <c r="G7" s="29">
         <v>4</v>
       </c>
       <c r="H7" t="s" s="13">
@@ -7276,12 +7210,12 @@
       <c r="I7" t="s" s="13">
         <v>87</v>
       </c>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="35"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
       <c r="P7" t="s" s="13">
         <v>27</v>
       </c>
@@ -7304,7 +7238,7 @@
         <v>115</v>
       </c>
       <c r="F8" s="6"/>
-      <c r="G8" s="33">
+      <c r="G8" s="29">
         <v>5</v>
       </c>
       <c r="H8" t="s" s="13">
@@ -7313,12 +7247,12 @@
       <c r="I8" t="s" s="13">
         <v>116</v>
       </c>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="35"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
       <c r="P8" t="s" s="13">
         <v>27</v>
       </c>
@@ -7341,7 +7275,7 @@
         <v>118</v>
       </c>
       <c r="F9" s="6"/>
-      <c r="G9" s="33">
+      <c r="G9" s="29">
         <v>6</v>
       </c>
       <c r="H9" t="s" s="13">
@@ -7350,12 +7284,12 @@
       <c r="I9" t="s" s="13">
         <v>116</v>
       </c>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
       <c r="P9" t="s" s="13">
         <v>27</v>
       </c>
@@ -7378,19 +7312,19 @@
         <v>106</v>
       </c>
       <c r="F10" s="6"/>
-      <c r="G10" s="33">
+      <c r="G10" s="29">
         <v>1</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" t="s" s="13">
         <v>83</v>
       </c>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="35"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
       <c r="P10" t="s" s="13">
         <v>27</v>
       </c>
@@ -7413,7 +7347,7 @@
         <v>109</v>
       </c>
       <c r="F11" s="6"/>
-      <c r="G11" s="33">
+      <c r="G11" s="29">
         <v>2</v>
       </c>
       <c r="H11" t="s" s="13">
@@ -7422,12 +7356,12 @@
       <c r="I11" t="s" s="13">
         <v>85</v>
       </c>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
       <c r="P11" t="s" s="13">
         <v>27</v>
       </c>
@@ -7450,7 +7384,7 @@
         <v>111</v>
       </c>
       <c r="F12" s="6"/>
-      <c r="G12" s="33">
+      <c r="G12" s="29">
         <v>3</v>
       </c>
       <c r="H12" t="s" s="13">
@@ -7459,12 +7393,12 @@
       <c r="I12" t="s" s="13">
         <v>83</v>
       </c>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="35"/>
-      <c r="N12" s="35"/>
-      <c r="O12" s="35"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
       <c r="P12" t="s" s="13">
         <v>27</v>
       </c>
@@ -7487,7 +7421,7 @@
         <v>113</v>
       </c>
       <c r="F13" s="6"/>
-      <c r="G13" s="33">
+      <c r="G13" s="29">
         <v>4</v>
       </c>
       <c r="H13" t="s" s="13">
@@ -7496,12 +7430,12 @@
       <c r="I13" t="s" s="13">
         <v>87</v>
       </c>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="35"/>
-      <c r="O13" s="35"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
       <c r="P13" t="s" s="13">
         <v>27</v>
       </c>
@@ -7524,7 +7458,7 @@
         <v>115</v>
       </c>
       <c r="F14" s="6"/>
-      <c r="G14" s="33">
+      <c r="G14" s="29">
         <v>5</v>
       </c>
       <c r="H14" t="s" s="13">
@@ -7533,12 +7467,12 @@
       <c r="I14" t="s" s="13">
         <v>116</v>
       </c>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="35"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31"/>
       <c r="P14" t="s" s="13">
         <v>27</v>
       </c>
@@ -7561,7 +7495,7 @@
         <v>118</v>
       </c>
       <c r="F15" s="6"/>
-      <c r="G15" s="33">
+      <c r="G15" s="29">
         <v>6</v>
       </c>
       <c r="H15" t="s" s="13">
@@ -7570,12 +7504,12 @@
       <c r="I15" t="s" s="13">
         <v>116</v>
       </c>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31"/>
       <c r="P15" t="s" s="13">
         <v>27</v>
       </c>
@@ -7600,18 +7534,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="37.1719" style="36" customWidth="1"/>
-    <col min="2" max="2" width="15.3516" style="36" customWidth="1"/>
-    <col min="3" max="3" width="27.3516" style="36" customWidth="1"/>
-    <col min="4" max="4" width="21" style="36" customWidth="1"/>
-    <col min="5" max="7" width="20.6719" style="36" customWidth="1"/>
-    <col min="8" max="9" width="21.6719" style="36" customWidth="1"/>
-    <col min="10" max="10" width="14.3516" style="36" customWidth="1"/>
-    <col min="11" max="11" width="12.8516" style="36" customWidth="1"/>
-    <col min="12" max="12" width="15.8516" style="36" customWidth="1"/>
-    <col min="13" max="14" width="28.6719" style="36" customWidth="1"/>
-    <col min="15" max="15" width="23.3516" style="36" customWidth="1"/>
-    <col min="16" max="16384" width="14.3516" style="36" customWidth="1"/>
+    <col min="1" max="1" width="37.1719" style="32" customWidth="1"/>
+    <col min="2" max="2" width="15.3516" style="32" customWidth="1"/>
+    <col min="3" max="3" width="27.3516" style="32" customWidth="1"/>
+    <col min="4" max="4" width="21" style="32" customWidth="1"/>
+    <col min="5" max="7" width="20.6719" style="32" customWidth="1"/>
+    <col min="8" max="9" width="21.6719" style="32" customWidth="1"/>
+    <col min="10" max="10" width="14.3516" style="32" customWidth="1"/>
+    <col min="11" max="11" width="12.8516" style="32" customWidth="1"/>
+    <col min="12" max="12" width="15.8516" style="32" customWidth="1"/>
+    <col min="13" max="14" width="28.6719" style="32" customWidth="1"/>
+    <col min="15" max="15" width="23.3516" style="32" customWidth="1"/>
+    <col min="16" max="16384" width="14.3516" style="32" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1">
@@ -7628,15 +7562,15 @@
         <v>3</v>
       </c>
       <c r="E1" s="6"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
       <c r="H1" s="6"/>
-      <c r="I1" s="25"/>
+      <c r="I1" s="6"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
-      <c r="N1" s="25"/>
+      <c r="N1" s="6"/>
       <c r="O1" s="6"/>
     </row>
     <row r="2" ht="54.75" customHeight="1">
@@ -7651,16 +7585,16 @@
       <c r="E2" t="s" s="8">
         <v>121</v>
       </c>
-      <c r="F2" t="s" s="37">
+      <c r="F2" t="s" s="8">
         <v>122</v>
       </c>
-      <c r="G2" t="s" s="37">
+      <c r="G2" t="s" s="8">
         <v>123</v>
       </c>
       <c r="H2" t="s" s="8">
         <v>124</v>
       </c>
-      <c r="I2" t="s" s="37">
+      <c r="I2" t="s" s="8">
         <v>124</v>
       </c>
       <c r="J2" t="s" s="15">
@@ -7675,7 +7609,7 @@
       <c r="M2" t="s" s="8">
         <v>77</v>
       </c>
-      <c r="N2" t="s" s="38">
+      <c r="N2" t="s" s="33">
         <v>127</v>
       </c>
       <c r="O2" t="s" s="8">
@@ -7698,16 +7632,16 @@
       <c r="E3" t="s" s="10">
         <v>130</v>
       </c>
-      <c r="F3" t="s" s="28">
+      <c r="F3" t="s" s="9">
         <v>131</v>
       </c>
-      <c r="G3" t="s" s="28">
+      <c r="G3" t="s" s="9">
         <v>132</v>
       </c>
       <c r="H3" t="s" s="9">
         <v>133</v>
       </c>
-      <c r="I3" t="s" s="28">
+      <c r="I3" t="s" s="9">
         <v>134</v>
       </c>
       <c r="J3" t="s" s="10">
@@ -7719,13 +7653,13 @@
       <c r="L3" t="s" s="9">
         <v>137</v>
       </c>
-      <c r="M3" t="s" s="39">
+      <c r="M3" t="s" s="34">
         <v>79</v>
       </c>
-      <c r="N3" t="s" s="40">
+      <c r="N3" t="s" s="35">
         <v>138</v>
       </c>
-      <c r="O3" t="s" s="41">
+      <c r="O3" t="s" s="36">
         <v>139</v>
       </c>
     </row>
@@ -7743,14 +7677,14 @@
       <c r="E4" t="s" s="13">
         <v>47</v>
       </c>
-      <c r="F4" s="42">
+      <c r="F4" s="29">
         <v>1</v>
       </c>
-      <c r="G4" s="25"/>
+      <c r="G4" s="6"/>
       <c r="H4" t="s" s="13">
         <v>51</v>
       </c>
-      <c r="I4" t="s" s="43">
+      <c r="I4" t="s" s="13">
         <v>140</v>
       </c>
       <c r="J4" t="s" s="13">
@@ -7759,11 +7693,11 @@
       <c r="K4" t="s" s="13">
         <v>142</v>
       </c>
-      <c r="L4" s="33">
+      <c r="L4" s="29">
         <v>1</v>
       </c>
       <c r="M4" s="6"/>
-      <c r="N4" s="44"/>
+      <c r="N4" s="37"/>
       <c r="O4" t="s" s="13">
         <v>107</v>
       </c>
@@ -7782,14 +7716,14 @@
       <c r="E5" t="s" s="13">
         <v>52</v>
       </c>
-      <c r="F5" s="42">
+      <c r="F5" s="29">
         <v>2</v>
       </c>
-      <c r="G5" s="25"/>
+      <c r="G5" s="6"/>
       <c r="H5" t="s" s="13">
         <v>51</v>
       </c>
-      <c r="I5" t="s" s="43">
+      <c r="I5" t="s" s="13">
         <v>140</v>
       </c>
       <c r="J5" t="s" s="13">
@@ -7798,11 +7732,11 @@
       <c r="K5" t="s" s="13">
         <v>142</v>
       </c>
-      <c r="L5" s="33">
+      <c r="L5" s="29">
         <v>1</v>
       </c>
       <c r="M5" s="6"/>
-      <c r="N5" s="25"/>
+      <c r="N5" s="6"/>
       <c r="O5" t="s" s="13">
         <v>107</v>
       </c>
@@ -7821,14 +7755,14 @@
       <c r="E6" t="s" s="13">
         <v>56</v>
       </c>
-      <c r="F6" s="42">
+      <c r="F6" s="29">
         <v>3</v>
       </c>
-      <c r="G6" s="25"/>
+      <c r="G6" s="6"/>
       <c r="H6" t="s" s="13">
         <v>51</v>
       </c>
-      <c r="I6" t="s" s="43">
+      <c r="I6" t="s" s="13">
         <v>140</v>
       </c>
       <c r="J6" t="s" s="13">
@@ -7837,11 +7771,11 @@
       <c r="K6" t="s" s="13">
         <v>142</v>
       </c>
-      <c r="L6" s="33">
+      <c r="L6" s="29">
         <v>1</v>
       </c>
       <c r="M6" s="6"/>
-      <c r="N6" s="25"/>
+      <c r="N6" s="6"/>
       <c r="O6" t="s" s="13">
         <v>107</v>
       </c>
@@ -7860,14 +7794,14 @@
       <c r="E7" t="s" s="13">
         <v>60</v>
       </c>
-      <c r="F7" s="42">
+      <c r="F7" s="29">
         <v>4</v>
       </c>
-      <c r="G7" s="25"/>
+      <c r="G7" s="6"/>
       <c r="H7" t="s" s="13">
         <v>51</v>
       </c>
-      <c r="I7" t="s" s="43">
+      <c r="I7" t="s" s="13">
         <v>140</v>
       </c>
       <c r="J7" t="s" s="13">
@@ -7876,11 +7810,11 @@
       <c r="K7" t="s" s="13">
         <v>142</v>
       </c>
-      <c r="L7" s="33">
+      <c r="L7" s="29">
         <v>1</v>
       </c>
       <c r="M7" s="6"/>
-      <c r="N7" s="25"/>
+      <c r="N7" s="6"/>
       <c r="O7" t="s" s="13">
         <v>107</v>
       </c>
@@ -7899,14 +7833,14 @@
       <c r="E8" t="s" s="13">
         <v>64</v>
       </c>
-      <c r="F8" s="42">
+      <c r="F8" s="29">
         <v>5</v>
       </c>
-      <c r="G8" s="25"/>
+      <c r="G8" s="6"/>
       <c r="H8" t="s" s="13">
         <v>51</v>
       </c>
-      <c r="I8" t="s" s="43">
+      <c r="I8" t="s" s="13">
         <v>140</v>
       </c>
       <c r="J8" t="s" s="13">
@@ -7915,11 +7849,11 @@
       <c r="K8" t="s" s="13">
         <v>142</v>
       </c>
-      <c r="L8" s="33">
+      <c r="L8" s="29">
         <v>1</v>
       </c>
       <c r="M8" s="6"/>
-      <c r="N8" s="25"/>
+      <c r="N8" s="6"/>
       <c r="O8" t="s" s="13">
         <v>107</v>
       </c>
@@ -7938,14 +7872,14 @@
       <c r="E9" t="s" s="13">
         <v>68</v>
       </c>
-      <c r="F9" s="42">
+      <c r="F9" s="29">
         <v>1</v>
       </c>
-      <c r="G9" s="25"/>
+      <c r="G9" s="6"/>
       <c r="H9" t="s" s="13">
         <v>51</v>
       </c>
-      <c r="I9" t="s" s="43">
+      <c r="I9" t="s" s="13">
         <v>140</v>
       </c>
       <c r="J9" t="s" s="13">
@@ -7954,11 +7888,11 @@
       <c r="K9" t="s" s="13">
         <v>144</v>
       </c>
-      <c r="L9" s="33">
+      <c r="L9" s="29">
         <v>2</v>
       </c>
       <c r="M9" s="6"/>
-      <c r="N9" s="25"/>
+      <c r="N9" s="6"/>
       <c r="O9" t="s" s="13">
         <v>107</v>
       </c>
@@ -7977,14 +7911,14 @@
       <c r="E10" t="s" s="13">
         <v>47</v>
       </c>
-      <c r="F10" s="42">
+      <c r="F10" s="29">
         <v>1</v>
       </c>
-      <c r="G10" s="25"/>
+      <c r="G10" s="6"/>
       <c r="H10" t="s" s="13">
         <v>51</v>
       </c>
-      <c r="I10" t="s" s="43">
+      <c r="I10" t="s" s="13">
         <v>140</v>
       </c>
       <c r="J10" t="s" s="13">
@@ -7993,11 +7927,11 @@
       <c r="K10" t="s" s="13">
         <v>142</v>
       </c>
-      <c r="L10" s="33">
+      <c r="L10" s="29">
         <v>1</v>
       </c>
       <c r="M10" s="6"/>
-      <c r="N10" s="25"/>
+      <c r="N10" s="6"/>
       <c r="O10" t="s" s="13">
         <v>107</v>
       </c>
@@ -8016,14 +7950,14 @@
       <c r="E11" t="s" s="13">
         <v>52</v>
       </c>
-      <c r="F11" s="42">
+      <c r="F11" s="29">
         <v>2</v>
       </c>
-      <c r="G11" s="25"/>
+      <c r="G11" s="6"/>
       <c r="H11" t="s" s="13">
         <v>51</v>
       </c>
-      <c r="I11" t="s" s="43">
+      <c r="I11" t="s" s="13">
         <v>140</v>
       </c>
       <c r="J11" t="s" s="13">
@@ -8032,11 +7966,11 @@
       <c r="K11" t="s" s="13">
         <v>142</v>
       </c>
-      <c r="L11" s="33">
+      <c r="L11" s="29">
         <v>1</v>
       </c>
       <c r="M11" s="6"/>
-      <c r="N11" s="25"/>
+      <c r="N11" s="6"/>
       <c r="O11" t="s" s="13">
         <v>107</v>
       </c>
@@ -8055,14 +7989,14 @@
       <c r="E12" t="s" s="13">
         <v>56</v>
       </c>
-      <c r="F12" s="42">
+      <c r="F12" s="29">
         <v>3</v>
       </c>
-      <c r="G12" s="25"/>
+      <c r="G12" s="6"/>
       <c r="H12" t="s" s="13">
         <v>51</v>
       </c>
-      <c r="I12" t="s" s="43">
+      <c r="I12" t="s" s="13">
         <v>140</v>
       </c>
       <c r="J12" t="s" s="13">
@@ -8071,11 +8005,11 @@
       <c r="K12" t="s" s="13">
         <v>142</v>
       </c>
-      <c r="L12" s="33">
+      <c r="L12" s="29">
         <v>1</v>
       </c>
       <c r="M12" s="6"/>
-      <c r="N12" s="25"/>
+      <c r="N12" s="6"/>
       <c r="O12" t="s" s="13">
         <v>107</v>
       </c>
@@ -8094,14 +8028,14 @@
       <c r="E13" t="s" s="13">
         <v>60</v>
       </c>
-      <c r="F13" s="42">
+      <c r="F13" s="29">
         <v>4</v>
       </c>
-      <c r="G13" s="25"/>
+      <c r="G13" s="6"/>
       <c r="H13" t="s" s="13">
         <v>51</v>
       </c>
-      <c r="I13" t="s" s="43">
+      <c r="I13" t="s" s="13">
         <v>140</v>
       </c>
       <c r="J13" t="s" s="13">
@@ -8110,11 +8044,11 @@
       <c r="K13" t="s" s="13">
         <v>142</v>
       </c>
-      <c r="L13" s="33">
+      <c r="L13" s="29">
         <v>1</v>
       </c>
       <c r="M13" s="6"/>
-      <c r="N13" s="25"/>
+      <c r="N13" s="6"/>
       <c r="O13" t="s" s="13">
         <v>107</v>
       </c>
@@ -8133,14 +8067,14 @@
       <c r="E14" t="s" s="13">
         <v>64</v>
       </c>
-      <c r="F14" s="42">
+      <c r="F14" s="29">
         <v>5</v>
       </c>
-      <c r="G14" s="25"/>
+      <c r="G14" s="6"/>
       <c r="H14" t="s" s="13">
         <v>51</v>
       </c>
-      <c r="I14" t="s" s="43">
+      <c r="I14" t="s" s="13">
         <v>140</v>
       </c>
       <c r="J14" t="s" s="13">
@@ -8149,11 +8083,11 @@
       <c r="K14" t="s" s="13">
         <v>142</v>
       </c>
-      <c r="L14" s="33">
+      <c r="L14" s="29">
         <v>1</v>
       </c>
       <c r="M14" s="6"/>
-      <c r="N14" s="25"/>
+      <c r="N14" s="6"/>
       <c r="O14" t="s" s="13">
         <v>107</v>
       </c>
@@ -8172,14 +8106,14 @@
       <c r="E15" t="s" s="13">
         <v>68</v>
       </c>
-      <c r="F15" s="42">
+      <c r="F15" s="29">
         <v>1</v>
       </c>
-      <c r="G15" s="25"/>
+      <c r="G15" s="6"/>
       <c r="H15" t="s" s="13">
         <v>51</v>
       </c>
-      <c r="I15" t="s" s="43">
+      <c r="I15" t="s" s="13">
         <v>140</v>
       </c>
       <c r="J15" t="s" s="13">
@@ -8188,11 +8122,11 @@
       <c r="K15" t="s" s="13">
         <v>144</v>
       </c>
-      <c r="L15" s="33">
+      <c r="L15" s="29">
         <v>2</v>
       </c>
       <c r="M15" s="6"/>
-      <c r="N15" s="25"/>
+      <c r="N15" s="6"/>
       <c r="O15" t="s" s="13">
         <v>107</v>
       </c>
@@ -8211,14 +8145,14 @@
       <c r="E16" t="s" s="13">
         <v>47</v>
       </c>
-      <c r="F16" s="42">
+      <c r="F16" s="29">
         <v>1</v>
       </c>
-      <c r="G16" s="25"/>
+      <c r="G16" s="6"/>
       <c r="H16" t="s" s="13">
         <v>107</v>
       </c>
-      <c r="I16" t="s" s="43">
+      <c r="I16" t="s" s="13">
         <v>140</v>
       </c>
       <c r="J16" t="s" s="13">
@@ -8227,11 +8161,11 @@
       <c r="K16" t="s" s="13">
         <v>142</v>
       </c>
-      <c r="L16" s="33">
+      <c r="L16" s="29">
         <v>1</v>
       </c>
       <c r="M16" s="6"/>
-      <c r="N16" s="25"/>
+      <c r="N16" s="6"/>
       <c r="O16" t="s" s="13">
         <v>51</v>
       </c>
@@ -8250,14 +8184,14 @@
       <c r="E17" t="s" s="13">
         <v>52</v>
       </c>
-      <c r="F17" s="42">
+      <c r="F17" s="29">
         <v>2</v>
       </c>
-      <c r="G17" s="25"/>
+      <c r="G17" s="6"/>
       <c r="H17" t="s" s="13">
         <v>107</v>
       </c>
-      <c r="I17" t="s" s="43">
+      <c r="I17" t="s" s="13">
         <v>140</v>
       </c>
       <c r="J17" t="s" s="13">
@@ -8266,11 +8200,11 @@
       <c r="K17" t="s" s="13">
         <v>142</v>
       </c>
-      <c r="L17" s="33">
+      <c r="L17" s="29">
         <v>1</v>
       </c>
       <c r="M17" s="6"/>
-      <c r="N17" s="25"/>
+      <c r="N17" s="6"/>
       <c r="O17" t="s" s="13">
         <v>51</v>
       </c>
@@ -8289,14 +8223,14 @@
       <c r="E18" t="s" s="13">
         <v>56</v>
       </c>
-      <c r="F18" s="42">
+      <c r="F18" s="29">
         <v>3</v>
       </c>
-      <c r="G18" s="25"/>
+      <c r="G18" s="6"/>
       <c r="H18" t="s" s="13">
         <v>107</v>
       </c>
-      <c r="I18" t="s" s="43">
+      <c r="I18" t="s" s="13">
         <v>140</v>
       </c>
       <c r="J18" t="s" s="13">
@@ -8305,11 +8239,11 @@
       <c r="K18" t="s" s="13">
         <v>142</v>
       </c>
-      <c r="L18" s="33">
+      <c r="L18" s="29">
         <v>1</v>
       </c>
       <c r="M18" s="6"/>
-      <c r="N18" s="25"/>
+      <c r="N18" s="6"/>
       <c r="O18" t="s" s="13">
         <v>51</v>
       </c>
@@ -8328,14 +8262,14 @@
       <c r="E19" t="s" s="13">
         <v>60</v>
       </c>
-      <c r="F19" s="42">
+      <c r="F19" s="29">
         <v>4</v>
       </c>
-      <c r="G19" s="25"/>
+      <c r="G19" s="6"/>
       <c r="H19" t="s" s="13">
         <v>107</v>
       </c>
-      <c r="I19" t="s" s="43">
+      <c r="I19" t="s" s="13">
         <v>140</v>
       </c>
       <c r="J19" t="s" s="13">
@@ -8344,11 +8278,11 @@
       <c r="K19" t="s" s="13">
         <v>142</v>
       </c>
-      <c r="L19" s="33">
+      <c r="L19" s="29">
         <v>1</v>
       </c>
       <c r="M19" s="6"/>
-      <c r="N19" s="25"/>
+      <c r="N19" s="6"/>
       <c r="O19" t="s" s="13">
         <v>51</v>
       </c>
@@ -8367,14 +8301,14 @@
       <c r="E20" t="s" s="13">
         <v>64</v>
       </c>
-      <c r="F20" s="42">
+      <c r="F20" s="29">
         <v>5</v>
       </c>
-      <c r="G20" s="25"/>
+      <c r="G20" s="6"/>
       <c r="H20" t="s" s="13">
         <v>107</v>
       </c>
-      <c r="I20" t="s" s="43">
+      <c r="I20" t="s" s="13">
         <v>140</v>
       </c>
       <c r="J20" t="s" s="13">
@@ -8383,11 +8317,11 @@
       <c r="K20" t="s" s="13">
         <v>142</v>
       </c>
-      <c r="L20" s="33">
+      <c r="L20" s="29">
         <v>1</v>
       </c>
       <c r="M20" s="6"/>
-      <c r="N20" s="25"/>
+      <c r="N20" s="6"/>
       <c r="O20" t="s" s="13">
         <v>51</v>
       </c>
@@ -8406,14 +8340,14 @@
       <c r="E21" t="s" s="13">
         <v>68</v>
       </c>
-      <c r="F21" s="42">
+      <c r="F21" s="29">
         <v>1</v>
       </c>
-      <c r="G21" s="25"/>
+      <c r="G21" s="6"/>
       <c r="H21" t="s" s="13">
         <v>107</v>
       </c>
-      <c r="I21" t="s" s="43">
+      <c r="I21" t="s" s="13">
         <v>140</v>
       </c>
       <c r="J21" t="s" s="13">
@@ -8422,11 +8356,11 @@
       <c r="K21" t="s" s="13">
         <v>144</v>
       </c>
-      <c r="L21" s="33">
+      <c r="L21" s="29">
         <v>2</v>
       </c>
       <c r="M21" s="6"/>
-      <c r="N21" s="25"/>
+      <c r="N21" s="6"/>
       <c r="O21" t="s" s="13">
         <v>51</v>
       </c>
@@ -8445,14 +8379,14 @@
       <c r="E22" t="s" s="13">
         <v>47</v>
       </c>
-      <c r="F22" s="42">
+      <c r="F22" s="29">
         <v>1</v>
       </c>
-      <c r="G22" s="25"/>
+      <c r="G22" s="6"/>
       <c r="H22" t="s" s="13">
         <v>51</v>
       </c>
-      <c r="I22" t="s" s="43">
+      <c r="I22" t="s" s="13">
         <v>140</v>
       </c>
       <c r="J22" t="s" s="13">
@@ -8461,11 +8395,11 @@
       <c r="K22" t="s" s="13">
         <v>142</v>
       </c>
-      <c r="L22" s="33">
+      <c r="L22" s="29">
         <v>1</v>
       </c>
       <c r="M22" s="6"/>
-      <c r="N22" s="25"/>
+      <c r="N22" s="6"/>
       <c r="O22" t="s" s="13">
         <v>107</v>
       </c>
@@ -8484,14 +8418,14 @@
       <c r="E23" t="s" s="13">
         <v>52</v>
       </c>
-      <c r="F23" s="42">
+      <c r="F23" s="29">
         <v>2</v>
       </c>
-      <c r="G23" s="25"/>
+      <c r="G23" s="6"/>
       <c r="H23" t="s" s="13">
         <v>51</v>
       </c>
-      <c r="I23" t="s" s="43">
+      <c r="I23" t="s" s="13">
         <v>140</v>
       </c>
       <c r="J23" t="s" s="13">
@@ -8500,11 +8434,11 @@
       <c r="K23" t="s" s="13">
         <v>142</v>
       </c>
-      <c r="L23" s="33">
+      <c r="L23" s="29">
         <v>1</v>
       </c>
       <c r="M23" s="6"/>
-      <c r="N23" s="25"/>
+      <c r="N23" s="6"/>
       <c r="O23" t="s" s="13">
         <v>107</v>
       </c>
@@ -8523,14 +8457,14 @@
       <c r="E24" t="s" s="13">
         <v>56</v>
       </c>
-      <c r="F24" s="42">
+      <c r="F24" s="29">
         <v>3</v>
       </c>
-      <c r="G24" s="25"/>
+      <c r="G24" s="6"/>
       <c r="H24" t="s" s="13">
         <v>51</v>
       </c>
-      <c r="I24" t="s" s="43">
+      <c r="I24" t="s" s="13">
         <v>140</v>
       </c>
       <c r="J24" t="s" s="13">
@@ -8539,11 +8473,11 @@
       <c r="K24" t="s" s="13">
         <v>142</v>
       </c>
-      <c r="L24" s="33">
+      <c r="L24" s="29">
         <v>1</v>
       </c>
       <c r="M24" s="6"/>
-      <c r="N24" s="25"/>
+      <c r="N24" s="6"/>
       <c r="O24" t="s" s="13">
         <v>107</v>
       </c>
@@ -8562,14 +8496,14 @@
       <c r="E25" t="s" s="13">
         <v>60</v>
       </c>
-      <c r="F25" s="42">
+      <c r="F25" s="29">
         <v>4</v>
       </c>
-      <c r="G25" s="25"/>
+      <c r="G25" s="6"/>
       <c r="H25" t="s" s="13">
         <v>51</v>
       </c>
-      <c r="I25" t="s" s="43">
+      <c r="I25" t="s" s="13">
         <v>140</v>
       </c>
       <c r="J25" t="s" s="13">
@@ -8578,11 +8512,11 @@
       <c r="K25" t="s" s="13">
         <v>142</v>
       </c>
-      <c r="L25" s="33">
+      <c r="L25" s="29">
         <v>1</v>
       </c>
       <c r="M25" s="6"/>
-      <c r="N25" s="25"/>
+      <c r="N25" s="6"/>
       <c r="O25" t="s" s="13">
         <v>107</v>
       </c>
@@ -8601,14 +8535,14 @@
       <c r="E26" t="s" s="13">
         <v>64</v>
       </c>
-      <c r="F26" s="42">
+      <c r="F26" s="29">
         <v>5</v>
       </c>
-      <c r="G26" s="25"/>
+      <c r="G26" s="6"/>
       <c r="H26" t="s" s="13">
         <v>51</v>
       </c>
-      <c r="I26" t="s" s="43">
+      <c r="I26" t="s" s="13">
         <v>140</v>
       </c>
       <c r="J26" t="s" s="13">
@@ -8617,11 +8551,11 @@
       <c r="K26" t="s" s="13">
         <v>142</v>
       </c>
-      <c r="L26" s="33">
+      <c r="L26" s="29">
         <v>1</v>
       </c>
       <c r="M26" s="6"/>
-      <c r="N26" s="25"/>
+      <c r="N26" s="6"/>
       <c r="O26" t="s" s="13">
         <v>107</v>
       </c>
@@ -8640,14 +8574,14 @@
       <c r="E27" t="s" s="13">
         <v>68</v>
       </c>
-      <c r="F27" s="42">
+      <c r="F27" s="29">
         <v>1</v>
       </c>
-      <c r="G27" s="25"/>
+      <c r="G27" s="6"/>
       <c r="H27" t="s" s="13">
         <v>51</v>
       </c>
-      <c r="I27" t="s" s="43">
+      <c r="I27" t="s" s="13">
         <v>140</v>
       </c>
       <c r="J27" t="s" s="13">
@@ -8656,11 +8590,11 @@
       <c r="K27" t="s" s="13">
         <v>144</v>
       </c>
-      <c r="L27" s="33">
+      <c r="L27" s="29">
         <v>2</v>
       </c>
       <c r="M27" s="6"/>
-      <c r="N27" s="25"/>
+      <c r="N27" s="6"/>
       <c r="O27" t="s" s="13">
         <v>107</v>
       </c>
@@ -8679,14 +8613,14 @@
       <c r="E28" t="s" s="13">
         <v>47</v>
       </c>
-      <c r="F28" s="42">
+      <c r="F28" s="29">
         <v>1</v>
       </c>
-      <c r="G28" s="25"/>
+      <c r="G28" s="6"/>
       <c r="H28" t="s" s="13">
         <v>51</v>
       </c>
-      <c r="I28" t="s" s="43">
+      <c r="I28" t="s" s="13">
         <v>140</v>
       </c>
       <c r="J28" t="s" s="13">
@@ -8695,11 +8629,11 @@
       <c r="K28" t="s" s="13">
         <v>142</v>
       </c>
-      <c r="L28" s="33">
+      <c r="L28" s="29">
         <v>1</v>
       </c>
       <c r="M28" s="6"/>
-      <c r="N28" s="25"/>
+      <c r="N28" s="6"/>
       <c r="O28" t="s" s="13">
         <v>107</v>
       </c>
@@ -8718,14 +8652,14 @@
       <c r="E29" t="s" s="13">
         <v>52</v>
       </c>
-      <c r="F29" s="42">
+      <c r="F29" s="29">
         <v>2</v>
       </c>
-      <c r="G29" s="25"/>
+      <c r="G29" s="6"/>
       <c r="H29" t="s" s="13">
         <v>51</v>
       </c>
-      <c r="I29" t="s" s="43">
+      <c r="I29" t="s" s="13">
         <v>140</v>
       </c>
       <c r="J29" t="s" s="13">
@@ -8734,11 +8668,11 @@
       <c r="K29" t="s" s="13">
         <v>142</v>
       </c>
-      <c r="L29" s="33">
+      <c r="L29" s="29">
         <v>1</v>
       </c>
       <c r="M29" s="6"/>
-      <c r="N29" s="25"/>
+      <c r="N29" s="6"/>
       <c r="O29" t="s" s="13">
         <v>107</v>
       </c>
@@ -8757,14 +8691,14 @@
       <c r="E30" t="s" s="13">
         <v>56</v>
       </c>
-      <c r="F30" s="42">
+      <c r="F30" s="29">
         <v>3</v>
       </c>
-      <c r="G30" s="25"/>
+      <c r="G30" s="6"/>
       <c r="H30" t="s" s="13">
         <v>51</v>
       </c>
-      <c r="I30" t="s" s="43">
+      <c r="I30" t="s" s="13">
         <v>140</v>
       </c>
       <c r="J30" t="s" s="13">
@@ -8773,11 +8707,11 @@
       <c r="K30" t="s" s="13">
         <v>142</v>
       </c>
-      <c r="L30" s="33">
+      <c r="L30" s="29">
         <v>1</v>
       </c>
       <c r="M30" s="6"/>
-      <c r="N30" s="25"/>
+      <c r="N30" s="6"/>
       <c r="O30" t="s" s="13">
         <v>107</v>
       </c>
@@ -8796,14 +8730,14 @@
       <c r="E31" t="s" s="13">
         <v>60</v>
       </c>
-      <c r="F31" s="42">
+      <c r="F31" s="29">
         <v>4</v>
       </c>
-      <c r="G31" s="25"/>
+      <c r="G31" s="6"/>
       <c r="H31" t="s" s="13">
         <v>51</v>
       </c>
-      <c r="I31" t="s" s="43">
+      <c r="I31" t="s" s="13">
         <v>140</v>
       </c>
       <c r="J31" t="s" s="13">
@@ -8812,11 +8746,11 @@
       <c r="K31" t="s" s="13">
         <v>142</v>
       </c>
-      <c r="L31" s="33">
+      <c r="L31" s="29">
         <v>1</v>
       </c>
       <c r="M31" s="6"/>
-      <c r="N31" s="25"/>
+      <c r="N31" s="6"/>
       <c r="O31" t="s" s="13">
         <v>107</v>
       </c>
@@ -8835,14 +8769,14 @@
       <c r="E32" t="s" s="13">
         <v>64</v>
       </c>
-      <c r="F32" s="42">
+      <c r="F32" s="29">
         <v>5</v>
       </c>
-      <c r="G32" s="25"/>
+      <c r="G32" s="6"/>
       <c r="H32" t="s" s="13">
         <v>51</v>
       </c>
-      <c r="I32" t="s" s="43">
+      <c r="I32" t="s" s="13">
         <v>140</v>
       </c>
       <c r="J32" t="s" s="13">
@@ -8851,11 +8785,11 @@
       <c r="K32" t="s" s="13">
         <v>142</v>
       </c>
-      <c r="L32" s="33">
+      <c r="L32" s="29">
         <v>1</v>
       </c>
       <c r="M32" s="6"/>
-      <c r="N32" s="25"/>
+      <c r="N32" s="6"/>
       <c r="O32" t="s" s="13">
         <v>107</v>
       </c>
@@ -8874,14 +8808,14 @@
       <c r="E33" t="s" s="13">
         <v>68</v>
       </c>
-      <c r="F33" s="42">
+      <c r="F33" s="29">
         <v>1</v>
       </c>
-      <c r="G33" s="25"/>
+      <c r="G33" s="6"/>
       <c r="H33" t="s" s="13">
         <v>51</v>
       </c>
-      <c r="I33" t="s" s="43">
+      <c r="I33" t="s" s="13">
         <v>140</v>
       </c>
       <c r="J33" t="s" s="13">
@@ -8890,11 +8824,11 @@
       <c r="K33" t="s" s="13">
         <v>144</v>
       </c>
-      <c r="L33" s="33">
+      <c r="L33" s="29">
         <v>2</v>
       </c>
       <c r="M33" s="6"/>
-      <c r="N33" s="25"/>
+      <c r="N33" s="6"/>
       <c r="O33" t="s" s="13">
         <v>107</v>
       </c>
@@ -8913,14 +8847,14 @@
       <c r="E34" t="s" s="13">
         <v>47</v>
       </c>
-      <c r="F34" s="42">
+      <c r="F34" s="29">
         <v>1</v>
       </c>
-      <c r="G34" s="25"/>
+      <c r="G34" s="6"/>
       <c r="H34" t="s" s="13">
         <v>107</v>
       </c>
-      <c r="I34" t="s" s="43">
+      <c r="I34" t="s" s="13">
         <v>140</v>
       </c>
       <c r="J34" t="s" s="13">
@@ -8929,11 +8863,11 @@
       <c r="K34" t="s" s="13">
         <v>142</v>
       </c>
-      <c r="L34" s="33">
+      <c r="L34" s="29">
         <v>1</v>
       </c>
       <c r="M34" s="6"/>
-      <c r="N34" s="25"/>
+      <c r="N34" s="6"/>
       <c r="O34" t="s" s="13">
         <v>51</v>
       </c>
@@ -8952,14 +8886,14 @@
       <c r="E35" t="s" s="13">
         <v>52</v>
       </c>
-      <c r="F35" s="42">
+      <c r="F35" s="29">
         <v>2</v>
       </c>
-      <c r="G35" s="25"/>
+      <c r="G35" s="6"/>
       <c r="H35" t="s" s="13">
         <v>107</v>
       </c>
-      <c r="I35" t="s" s="43">
+      <c r="I35" t="s" s="13">
         <v>140</v>
       </c>
       <c r="J35" t="s" s="13">
@@ -8968,11 +8902,11 @@
       <c r="K35" t="s" s="13">
         <v>142</v>
       </c>
-      <c r="L35" s="33">
+      <c r="L35" s="29">
         <v>1</v>
       </c>
       <c r="M35" s="6"/>
-      <c r="N35" s="25"/>
+      <c r="N35" s="6"/>
       <c r="O35" t="s" s="13">
         <v>51</v>
       </c>
@@ -8991,14 +8925,14 @@
       <c r="E36" t="s" s="13">
         <v>56</v>
       </c>
-      <c r="F36" s="42">
+      <c r="F36" s="29">
         <v>3</v>
       </c>
-      <c r="G36" s="25"/>
+      <c r="G36" s="6"/>
       <c r="H36" t="s" s="13">
         <v>107</v>
       </c>
-      <c r="I36" t="s" s="43">
+      <c r="I36" t="s" s="13">
         <v>140</v>
       </c>
       <c r="J36" t="s" s="13">
@@ -9007,11 +8941,11 @@
       <c r="K36" t="s" s="13">
         <v>142</v>
       </c>
-      <c r="L36" s="33">
+      <c r="L36" s="29">
         <v>1</v>
       </c>
       <c r="M36" s="6"/>
-      <c r="N36" s="25"/>
+      <c r="N36" s="6"/>
       <c r="O36" t="s" s="13">
         <v>51</v>
       </c>
@@ -9030,14 +8964,14 @@
       <c r="E37" t="s" s="13">
         <v>60</v>
       </c>
-      <c r="F37" s="42">
+      <c r="F37" s="29">
         <v>4</v>
       </c>
-      <c r="G37" s="25"/>
+      <c r="G37" s="6"/>
       <c r="H37" t="s" s="13">
         <v>107</v>
       </c>
-      <c r="I37" t="s" s="43">
+      <c r="I37" t="s" s="13">
         <v>140</v>
       </c>
       <c r="J37" t="s" s="13">
@@ -9046,11 +8980,11 @@
       <c r="K37" t="s" s="13">
         <v>142</v>
       </c>
-      <c r="L37" s="33">
+      <c r="L37" s="29">
         <v>1</v>
       </c>
       <c r="M37" s="6"/>
-      <c r="N37" s="25"/>
+      <c r="N37" s="6"/>
       <c r="O37" t="s" s="13">
         <v>51</v>
       </c>
@@ -9069,14 +9003,14 @@
       <c r="E38" t="s" s="13">
         <v>64</v>
       </c>
-      <c r="F38" s="42">
+      <c r="F38" s="29">
         <v>5</v>
       </c>
-      <c r="G38" s="25"/>
+      <c r="G38" s="6"/>
       <c r="H38" t="s" s="13">
         <v>107</v>
       </c>
-      <c r="I38" t="s" s="43">
+      <c r="I38" t="s" s="13">
         <v>140</v>
       </c>
       <c r="J38" t="s" s="13">
@@ -9085,11 +9019,11 @@
       <c r="K38" t="s" s="13">
         <v>142</v>
       </c>
-      <c r="L38" s="33">
+      <c r="L38" s="29">
         <v>1</v>
       </c>
       <c r="M38" s="6"/>
-      <c r="N38" s="25"/>
+      <c r="N38" s="6"/>
       <c r="O38" t="s" s="13">
         <v>51</v>
       </c>
@@ -9108,14 +9042,14 @@
       <c r="E39" t="s" s="13">
         <v>68</v>
       </c>
-      <c r="F39" s="42">
+      <c r="F39" s="29">
         <v>1</v>
       </c>
-      <c r="G39" s="25"/>
+      <c r="G39" s="6"/>
       <c r="H39" t="s" s="13">
         <v>107</v>
       </c>
-      <c r="I39" t="s" s="43">
+      <c r="I39" t="s" s="13">
         <v>140</v>
       </c>
       <c r="J39" t="s" s="13">
@@ -9124,11 +9058,11 @@
       <c r="K39" t="s" s="13">
         <v>144</v>
       </c>
-      <c r="L39" s="33">
+      <c r="L39" s="29">
         <v>2</v>
       </c>
       <c r="M39" s="6"/>
-      <c r="N39" s="25"/>
+      <c r="N39" s="6"/>
       <c r="O39" t="s" s="13">
         <v>51</v>
       </c>
@@ -9150,13 +9084,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="18.8516" style="45" customWidth="1"/>
-    <col min="2" max="2" width="15.3516" style="45" customWidth="1"/>
-    <col min="3" max="3" width="30.1719" style="45" customWidth="1"/>
-    <col min="4" max="4" width="21.3516" style="45" customWidth="1"/>
-    <col min="5" max="5" width="20.1719" style="45" customWidth="1"/>
-    <col min="6" max="6" width="15.3516" style="45" customWidth="1"/>
-    <col min="7" max="16384" width="14.3516" style="45" customWidth="1"/>
+    <col min="1" max="1" width="18.8516" style="38" customWidth="1"/>
+    <col min="2" max="2" width="15.3516" style="38" customWidth="1"/>
+    <col min="3" max="3" width="30.1719" style="38" customWidth="1"/>
+    <col min="4" max="4" width="21.3516" style="38" customWidth="1"/>
+    <col min="5" max="5" width="20.1719" style="38" customWidth="1"/>
+    <col min="6" max="6" width="15.3516" style="38" customWidth="1"/>
+    <col min="7" max="16384" width="14.3516" style="38" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1">
@@ -9198,10 +9132,10 @@
       <c r="B3" t="s" s="9">
         <v>8</v>
       </c>
-      <c r="C3" t="s" s="46">
+      <c r="C3" t="s" s="39">
         <v>38</v>
       </c>
-      <c r="D3" t="s" s="46">
+      <c r="D3" t="s" s="39">
         <v>130</v>
       </c>
       <c r="E3" t="s" s="9">
@@ -9215,17 +9149,17 @@
       <c r="A4" s="11">
         <v>43466</v>
       </c>
-      <c r="B4" s="47"/>
+      <c r="B4" s="40"/>
       <c r="C4" t="s" s="13">
         <v>24</v>
       </c>
       <c r="D4" t="s" s="13">
         <v>47</v>
       </c>
-      <c r="E4" t="s" s="48">
+      <c r="E4" t="s" s="41">
         <v>147</v>
       </c>
-      <c r="F4" s="49">
+      <c r="F4" s="42">
         <v>1</v>
       </c>
     </row>
@@ -9233,17 +9167,17 @@
       <c r="A5" s="11">
         <v>43466</v>
       </c>
-      <c r="B5" s="47"/>
+      <c r="B5" s="40"/>
       <c r="C5" t="s" s="13">
         <v>28</v>
       </c>
       <c r="D5" t="s" s="13">
         <v>47</v>
       </c>
-      <c r="E5" t="s" s="48">
+      <c r="E5" t="s" s="41">
         <v>147</v>
       </c>
-      <c r="F5" s="49">
+      <c r="F5" s="42">
         <v>1</v>
       </c>
     </row>
